--- a/app/files/RDS_api_0000.xlsx
+++ b/app/files/RDS_api_0000.xlsx
@@ -6,13 +6,14 @@
   <sheets>
     <sheet sheetId="1" name="Metadata" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Experts" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Products" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>type</t>
   </si>
@@ -57,6 +58,18 @@
   </si>
   <si>
     <t>An expert on the sustainability and resilience of complex systems. Senior researcher in the Environmental Change Institute at the University of Oxford.</t>
+  </si>
+  <si>
+    <t>Hard Surface Care</t>
+  </si>
+  <si>
+    <t>Household cleaning sprays available for retail purchase in Sweden</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>Dairy products for sale in Sweden</t>
   </si>
 </sst>
 </file>
@@ -527,4 +540,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/app/files/RDS_api_0000.xlsx
+++ b/app/files/RDS_api_0000.xlsx
@@ -7,13 +7,14 @@
     <sheet sheetId="1" name="Metadata" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Experts" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="Products" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Hard Surface Care" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>type</t>
   </si>
@@ -70,6 +71,66 @@
   </si>
   <si>
     <t>Dairy products for sale in Sweden</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>ultimate_company</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>RB Hygiene Home Nordic</t>
+  </si>
+  <si>
+    <t>SC Johnson &amp; Son</t>
+  </si>
+  <si>
+    <t>ICA</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Lidl</t>
+  </si>
+  <si>
+    <t>Coop</t>
+  </si>
+  <si>
+    <t>Gysinge Centrum för Byggnadsvård</t>
+  </si>
+  <si>
+    <t>Sterling Polish Company</t>
+  </si>
+  <si>
+    <t>EPC</t>
+  </si>
+  <si>
+    <t>Herdins Färgverk</t>
+  </si>
+  <si>
+    <t>Delta Pronatura</t>
+  </si>
+  <si>
+    <t>Orkla Care</t>
+  </si>
+  <si>
+    <t>Orkla Group</t>
+  </si>
+  <si>
+    <t>Reckitt Benckiser</t>
+  </si>
+  <si>
+    <t>Unilever</t>
+  </si>
+  <si>
+    <t>Rybrinks</t>
   </si>
 </sst>
 </file>
@@ -575,4 +636,315 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5701092110732</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5000204706826</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8711800118476</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7318690170778</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7318690109150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7310360045010</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20127992</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7300156485571</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7350007582478</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7318690170785</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>57310824</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5412533002409</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7311910000350</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4008455428116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7310610014476</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7310252054205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5701092114174</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8710908369391</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7393481003046</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8717163712733</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/app/files/RDS_api_0000.xlsx
+++ b/app/files/RDS_api_0000.xlsx
@@ -56,7 +56,7 @@
     <t>An expert on natural resources law, environmentalism, food policy, sustainable public procurement, private environmental governance.</t>
   </si>
   <si>
-    <t>[Steven Lord</t>
+    <t>Steven Lord</t>
   </si>
   <si>
     <t>An expert on the sustainability and resilience of complex systems. Senior researcher in the Environmental Change Institute at the University of Oxford.</t>

--- a/app/files/RDS_api_0000.xlsx
+++ b/app/files/RDS_api_0000.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="261">
   <si>
     <t>type</t>
   </si>
@@ -185,6 +185,18 @@
     <t>Seventh Generation Free &amp; Clear</t>
   </si>
   <si>
+    <t>Seventh Generation</t>
+  </si>
+  <si>
+    <t>Cleano Production</t>
+  </si>
+  <si>
+    <t>C Heyerdahl</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Ängens</t>
   </si>
   <si>
@@ -276,6 +288,516 @@
   </si>
   <si>
     <t>Granarolo</t>
+  </si>
+  <si>
+    <t>Arla Yoggi Mini</t>
+  </si>
+  <si>
+    <t>Terroir Suisse</t>
+  </si>
+  <si>
+    <t>Wernersson Ost</t>
+  </si>
+  <si>
+    <t>Tine</t>
+  </si>
+  <si>
+    <t>Tine Snöfrisk</t>
+  </si>
+  <si>
+    <t>Fromageries Bel</t>
+  </si>
+  <si>
+    <t>La Vache qui Rit</t>
+  </si>
+  <si>
+    <t>Mondelez</t>
+  </si>
+  <si>
+    <t>Mondelez International</t>
+  </si>
+  <si>
+    <t>Sottilette The Original</t>
+  </si>
+  <si>
+    <t>Fromagerie Arnaud</t>
+  </si>
+  <si>
+    <t>Fromageries Arnaud Jura Flore Fort des Rousses</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Axfood</t>
+  </si>
+  <si>
+    <t>Garant</t>
+  </si>
+  <si>
+    <t>Lactalis</t>
+  </si>
+  <si>
+    <t>Président</t>
+  </si>
+  <si>
+    <t>EMD</t>
+  </si>
+  <si>
+    <t>Fresca d'Oro</t>
+  </si>
+  <si>
+    <t>Fontana Food</t>
+  </si>
+  <si>
+    <t>Fontana</t>
+  </si>
+  <si>
+    <t>Bel</t>
+  </si>
+  <si>
+    <t>Cantadou</t>
+  </si>
+  <si>
+    <t>Allerum</t>
+  </si>
+  <si>
+    <t>Drösbro Mejeri</t>
+  </si>
+  <si>
+    <t>Tine Snøfrisk</t>
+  </si>
+  <si>
+    <t>South Caernarfon Creameries</t>
+  </si>
+  <si>
+    <t>McEnnedy American Way</t>
+  </si>
+  <si>
+    <t>Schreiber &amp; Rupp</t>
+  </si>
+  <si>
+    <t>Milbona</t>
+  </si>
+  <si>
+    <t>Grådö Mejeri</t>
+  </si>
+  <si>
+    <t>Valio</t>
+  </si>
+  <si>
+    <t>Valio Oddlygood</t>
+  </si>
+  <si>
+    <t>Laiteries H.Triballat</t>
+  </si>
+  <si>
+    <t>Rians le Roulé</t>
+  </si>
+  <si>
+    <t>Xtra @ Coop</t>
+  </si>
+  <si>
+    <t>Nablus Mejerier</t>
+  </si>
+  <si>
+    <t>Nablus Mejeri</t>
+  </si>
+  <si>
+    <t>Konings-Zuivel</t>
+  </si>
+  <si>
+    <t>Konings</t>
+  </si>
+  <si>
+    <t>Mona Sojaland</t>
+  </si>
+  <si>
+    <t>Coop Trading</t>
+  </si>
+  <si>
+    <t>Najas Mejeri</t>
+  </si>
+  <si>
+    <t>Upfield</t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>Kolios</t>
+  </si>
+  <si>
+    <t>ICA I Love Eco</t>
+  </si>
+  <si>
+    <t>Ålandsmejeriet</t>
+  </si>
+  <si>
+    <t>Pohjolan Juustola</t>
+  </si>
+  <si>
+    <t>Bergendahl Food</t>
+  </si>
+  <si>
+    <t>Favor!t</t>
+  </si>
+  <si>
+    <t>Galbani</t>
+  </si>
+  <si>
+    <t>Berglandmilch eGen</t>
+  </si>
+  <si>
+    <t>Alpenfest</t>
+  </si>
+  <si>
+    <t>Verum Hälsofil</t>
+  </si>
+  <si>
+    <t>O. Kavli</t>
+  </si>
+  <si>
+    <t>Kavli</t>
+  </si>
+  <si>
+    <t>Kavli's</t>
+  </si>
+  <si>
+    <t>Cocio Chokolademælk</t>
+  </si>
+  <si>
+    <t>Pucko</t>
+  </si>
+  <si>
+    <t>Fabrica de Lapte Brasov</t>
+  </si>
+  <si>
+    <t>Compagnie des Fromages &amp; RichesMonts - CF&amp;R</t>
+  </si>
+  <si>
+    <t>Bongrain-Sodiaal</t>
+  </si>
+  <si>
+    <t>Saint Benoit</t>
+  </si>
+  <si>
+    <t>Frischgold</t>
+  </si>
+  <si>
+    <t>La Fattoria del Gennargentu</t>
+  </si>
+  <si>
+    <t>Lovilio</t>
+  </si>
+  <si>
+    <t>Fromarsac</t>
+  </si>
+  <si>
+    <t>Savencia Fromage &amp; Dairy</t>
+  </si>
+  <si>
+    <t>Tartare L'Original</t>
+  </si>
+  <si>
+    <t>Fjällbrynt</t>
+  </si>
+  <si>
+    <t>Netto</t>
+  </si>
+  <si>
+    <t>Dansk Supermarked</t>
+  </si>
+  <si>
+    <t>Maduko</t>
+  </si>
+  <si>
+    <t>Arla &amp; More</t>
+  </si>
+  <si>
+    <t>Kourellas</t>
+  </si>
+  <si>
+    <t>Skånemejerier Hjordnära</t>
+  </si>
+  <si>
+    <t>Rude Health</t>
+  </si>
+  <si>
+    <t>Fazer Lifestyle Foods</t>
+  </si>
+  <si>
+    <t>Fazer Group</t>
+  </si>
+  <si>
+    <t>Fazer Yosa</t>
+  </si>
+  <si>
+    <t>Filotas Belas &amp; Son / F. Belas &amp; Zonen</t>
+  </si>
+  <si>
+    <t>FoodCompetence</t>
+  </si>
+  <si>
+    <t>Delia</t>
+  </si>
+  <si>
+    <t>Valio Eila Laktosfri</t>
+  </si>
+  <si>
+    <t>Verum</t>
+  </si>
+  <si>
+    <t>Järna Mejeri</t>
+  </si>
+  <si>
+    <t>Skånemejerier Latte del Barista</t>
+  </si>
+  <si>
+    <t>Skånemejerier MåVäl</t>
+  </si>
+  <si>
+    <t>Crème Bonjour Cuisine Fraiche</t>
+  </si>
+  <si>
+    <t>Arla Wästgöta Kloster</t>
+  </si>
+  <si>
+    <t>Roussas Dairy</t>
+  </si>
+  <si>
+    <t>Garmo</t>
+  </si>
+  <si>
+    <t>Arla Yalla!</t>
+  </si>
+  <si>
+    <t>Tilab International</t>
+  </si>
+  <si>
+    <t>Safos</t>
+  </si>
+  <si>
+    <t>Italiamo</t>
+  </si>
+  <si>
+    <t>Zeta Fernando Di Luca</t>
+  </si>
+  <si>
+    <t>Ängens Präst</t>
+  </si>
+  <si>
+    <t>NJIE Group</t>
+  </si>
+  <si>
+    <t>NJIE Yow!</t>
+  </si>
+  <si>
+    <t>Lindahls</t>
+  </si>
+  <si>
+    <t>Lindahls Pro+</t>
+  </si>
+  <si>
+    <t>Skånemejerier Må Väl</t>
+  </si>
+  <si>
+    <t>Egidio Galbani</t>
+  </si>
+  <si>
+    <t>Mat För Alla/Carnator Imp &amp; Mark</t>
+  </si>
+  <si>
+    <t>FrieslandCampina Professional</t>
+  </si>
+  <si>
+    <t>FrieslandCampina</t>
+  </si>
+  <si>
+    <t>Chantibic</t>
+  </si>
+  <si>
+    <t>Skånemejerier Bara</t>
+  </si>
+  <si>
+    <t>Valio Världens Smaker</t>
+  </si>
+  <si>
+    <t>Lindahls Mejeriprodukter</t>
+  </si>
+  <si>
+    <t>Salakis</t>
+  </si>
+  <si>
+    <t>Falbygdens Ost</t>
+  </si>
+  <si>
+    <t>Kvibille</t>
+  </si>
+  <si>
+    <t>Mona Naturprodukte</t>
+  </si>
+  <si>
+    <t>Hain Celestial Group</t>
+  </si>
+  <si>
+    <t>Dream &amp; Joya</t>
+  </si>
+  <si>
+    <t>Arivia</t>
+  </si>
+  <si>
+    <t>Violife</t>
+  </si>
+  <si>
+    <t>Oatly</t>
+  </si>
+  <si>
+    <t>Oatly!</t>
+  </si>
+  <si>
+    <t>Valio Vanilj</t>
+  </si>
+  <si>
+    <t>Da Carla</t>
+  </si>
+  <si>
+    <t>VP Elmarso GreenVie Foods</t>
+  </si>
+  <si>
+    <t>Green Vie</t>
+  </si>
+  <si>
+    <t>Rebel Kitchen</t>
+  </si>
+  <si>
+    <t>Crème Bonjour</t>
+  </si>
+  <si>
+    <t>Zoma</t>
+  </si>
+  <si>
+    <t>Lovilio Bio Organic</t>
+  </si>
+  <si>
+    <t>Rossi</t>
+  </si>
+  <si>
+    <t>Ostkompaniet</t>
+  </si>
+  <si>
+    <t>OstSpecialisten</t>
+  </si>
+  <si>
+    <t>OstSpecialisten Förädlad Osttradition Bornholms Andelsmejeri</t>
+  </si>
+  <si>
+    <t>Falbygdens Rekommenderar</t>
+  </si>
+  <si>
+    <t>Arla Laktosfri</t>
+  </si>
+  <si>
+    <t>Falbygdens</t>
+  </si>
+  <si>
+    <t>Wernerssons</t>
+  </si>
+  <si>
+    <t>Jermi Käsewerk</t>
+  </si>
+  <si>
+    <t>Milbona Bio Organic</t>
+  </si>
+  <si>
+    <t>Fattorie Garofalo</t>
+  </si>
+  <si>
+    <t>Hellenic Dairies</t>
+  </si>
+  <si>
+    <t>Olympus</t>
+  </si>
+  <si>
+    <t>Doccas Food</t>
+  </si>
+  <si>
+    <t>Azienda Agricola Bio Hombre</t>
+  </si>
+  <si>
+    <t>Bio Hombre</t>
+  </si>
+  <si>
+    <t>Thise Mejeri</t>
+  </si>
+  <si>
+    <t>B&amp;P Handelskompagni</t>
+  </si>
+  <si>
+    <t>Naturens Skafferi Dessert Collection</t>
+  </si>
+  <si>
+    <t>La Mediterranea</t>
+  </si>
+  <si>
+    <t>Italiana Food Selections</t>
+  </si>
+  <si>
+    <t>Panizzi</t>
+  </si>
+  <si>
+    <t>Capurso Azienda Casearia</t>
+  </si>
+  <si>
+    <t>Azienda Agricola Ponte Reale</t>
+  </si>
+  <si>
+    <t>La Collina</t>
+  </si>
+  <si>
+    <t>Caseificio Maldera</t>
+  </si>
+  <si>
+    <t>Maldera</t>
+  </si>
+  <si>
+    <t>Biopek</t>
+  </si>
+  <si>
+    <t>Paul och Thom</t>
+  </si>
+  <si>
+    <t>La Fermière</t>
+  </si>
+  <si>
+    <t>Ostgruppen</t>
+  </si>
+  <si>
+    <t>Antica Formaggeria</t>
+  </si>
+  <si>
+    <t>Coeur de Lion</t>
+  </si>
+  <si>
+    <t>Milda</t>
+  </si>
+  <si>
+    <t>Matmäklarna</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Lätta Mini</t>
+  </si>
+  <si>
+    <t>Boursin</t>
+  </si>
+  <si>
+    <t>Consorzio Latterie Virgilio</t>
+  </si>
+  <si>
+    <t>Lätta</t>
   </si>
 </sst>
 </file>
@@ -785,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F57"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,6 +1668,618 @@
       </c>
       <c r="E21" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8717163712740</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20626860</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>20668563</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7300156484246</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7300156484284</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7393481002476</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7393481002469</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7090034920224</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5701092110732</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5000204706826</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8711800118476</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7318690170778</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7318690109150</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7310360045010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20127992</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7300156485571</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7350007582478</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>7318690170785</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>57310824</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5412533002409</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7311910000350</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4008455428116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>7310610014476</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7310252054205</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5701092114174</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8710908369391</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7393481003046</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8717163712733</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8717163712740</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>20626860</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>20668563</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>7300156484246</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>7300156484284</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7393481002476</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7393481002469</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7090034920224</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +2290,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F281"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1193,7 +2327,7 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1201,16 +2335,16 @@
         <v>7310867510738</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1218,16 +2352,16 @@
         <v>8003566005658</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1238,13 +2372,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1252,7 +2386,7 @@
         <v>7300156578143</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -1269,16 +2403,16 @@
         <v>7310867523301</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1303,16 +2437,16 @@
         <v>5420024630031</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1320,16 +2454,16 @@
         <v>7350027795940</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,16 +2471,16 @@
         <v>2352411209922</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1354,7 +2488,7 @@
         <v>20575427</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1363,7 +2497,7 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1371,7 +2505,7 @@
         <v>20970376</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -1380,7 +2514,7 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,16 +2522,16 @@
         <v>4770265217524</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,16 +2539,16 @@
         <v>5711953059629</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1422,16 +2556,16 @@
         <v>7340007923784</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,16 +2573,16 @@
         <v>5411188129653</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,16 +2590,16 @@
         <v>5711953020216</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1473,16 +2607,16 @@
         <v>7310865071705</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1490,16 +2624,16 @@
         <v>5000246727629</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1507,16 +2641,4436 @@
         <v>8002670050202</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7310865877468</v>
+      </c>
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2382190301715</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2382190101742</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7038010023736</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7038010024788</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3073781098020</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7622210585899</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3542860752011</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7622210166692</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7340083457609</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5709281009089</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2382190201770</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2317237007039</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7611612160834</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7316150977141</v>
+      </c>
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2382190601921</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7350027794844</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3073781123524</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3073781123500</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>7393720091681</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7300156583642</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7038010024870</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2385030004821</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7311877017194</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>7311877017187</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>7318690178811</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20509811</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4056489129592</v>
+      </c>
+      <c r="B49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7300156507242</v>
+      </c>
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6408430102068</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5711953031212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5740200023564</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3184670027875</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>7310865866608</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>7300156586131</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7311877017170</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7318690177807</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7350056750040</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>8716376000705</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7300156505750</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>7350103080038</v>
+      </c>
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>8719200043671</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7340007923807</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7350002403075</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>7318690130703</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>20788827</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7331746242670</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8000430133356</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2324532706826</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>20368074</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7350002402252</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7350002403112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>7318690140436</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7310861011453</v>
+      </c>
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7311441165283</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7340083463075</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5711953078378</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7340011497080</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2324600206531</v>
+      </c>
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2324610207047</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>20002251</v>
+      </c>
+      <c r="B82" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" t="s">
+        <v>151</v>
+      </c>
+      <c r="D82" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3176582994079</v>
+      </c>
+      <c r="B83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" t="s">
+        <v>153</v>
+      </c>
+      <c r="E83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>7340083435461</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>7340083459870</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>7393720091612</v>
+      </c>
+      <c r="B86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>20971151</v>
+      </c>
+      <c r="B87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3272770098915</v>
+      </c>
+      <c r="B88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D88" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2324543410699</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>20874872</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>7350056750354</v>
+      </c>
+      <c r="B91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" t="s">
+        <v>127</v>
+      </c>
+      <c r="E91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>7311441343209</v>
+      </c>
+      <c r="B92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>7340043066438</v>
+      </c>
+      <c r="B93" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" t="s">
+        <v>161</v>
+      </c>
+      <c r="E93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>7340043065936</v>
+      </c>
+      <c r="B94" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5712872292425</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>162</v>
+      </c>
+      <c r="D95" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4016241040770</v>
+      </c>
+      <c r="B96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" t="s">
+        <v>77</v>
+      </c>
+      <c r="D96" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4016241040787</v>
+      </c>
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" t="s">
+        <v>77</v>
+      </c>
+      <c r="D97" t="s">
+        <v>77</v>
+      </c>
+      <c r="E97" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5712872292517</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>162</v>
+      </c>
+      <c r="D98" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>7350056750101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" t="s">
+        <v>127</v>
+      </c>
+      <c r="E99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5712872292524</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" t="s">
+        <v>163</v>
+      </c>
+      <c r="E100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>5200101971055</v>
+      </c>
+      <c r="B101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2359747506169</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>7310867550208</v>
+      </c>
+      <c r="B103" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" t="s">
+        <v>62</v>
+      </c>
+      <c r="E103" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5060120283184</v>
+      </c>
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" t="s">
+        <v>168</v>
+      </c>
+      <c r="E104" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5411188128601</v>
+      </c>
+      <c r="B105" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" t="s">
+        <v>83</v>
+      </c>
+      <c r="D105" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>6410220009426</v>
+      </c>
+      <c r="B106" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>7350066930197</v>
+      </c>
+      <c r="B107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" t="s">
+        <v>173</v>
+      </c>
+      <c r="D107" t="s">
+        <v>173</v>
+      </c>
+      <c r="E107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>7350066930272</v>
+      </c>
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" t="s">
+        <v>173</v>
+      </c>
+      <c r="D108" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>6408432202247</v>
+      </c>
+      <c r="B109" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" t="s">
+        <v>122</v>
+      </c>
+      <c r="E109" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>7310861016090</v>
+      </c>
+      <c r="B110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" t="s">
+        <v>71</v>
+      </c>
+      <c r="D110" t="s">
+        <v>71</v>
+      </c>
+      <c r="E110" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>7350088830024</v>
+      </c>
+      <c r="B111" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111" t="s">
+        <v>177</v>
+      </c>
+      <c r="E111" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>7310867500135</v>
+      </c>
+      <c r="B112" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" t="s">
+        <v>62</v>
+      </c>
+      <c r="E112" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>7310867523851</v>
+      </c>
+      <c r="B113" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" t="s">
+        <v>61</v>
+      </c>
+      <c r="D113" t="s">
+        <v>62</v>
+      </c>
+      <c r="E113" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>8719200019294</v>
+      </c>
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" t="s">
+        <v>134</v>
+      </c>
+      <c r="D114" t="s">
+        <v>134</v>
+      </c>
+      <c r="E114" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>8719200019331</v>
+      </c>
+      <c r="B115" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" t="s">
+        <v>134</v>
+      </c>
+      <c r="D115" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>7316150974133</v>
+      </c>
+      <c r="B116" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" t="s">
+        <v>110</v>
+      </c>
+      <c r="D116" t="s">
+        <v>110</v>
+      </c>
+      <c r="E116" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>7310867502726</v>
+      </c>
+      <c r="B117" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" t="s">
+        <v>61</v>
+      </c>
+      <c r="D117" t="s">
+        <v>62</v>
+      </c>
+      <c r="E117" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2340380604947</v>
+      </c>
+      <c r="B118" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" t="s">
+        <v>78</v>
+      </c>
+      <c r="D118" t="s">
+        <v>78</v>
+      </c>
+      <c r="E118" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2340443608356</v>
+      </c>
+      <c r="B119" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>7318690073727</v>
+      </c>
+      <c r="B120" t="s">
+        <v>182</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>7318690166573</v>
+      </c>
+      <c r="B121" t="s">
+        <v>182</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>4016241040725</v>
+      </c>
+      <c r="B122" t="s">
+        <v>77</v>
+      </c>
+      <c r="C122" t="s">
+        <v>77</v>
+      </c>
+      <c r="D122" t="s">
+        <v>77</v>
+      </c>
+      <c r="E122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>7316150970340</v>
+      </c>
+      <c r="B123" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" t="s">
+        <v>110</v>
+      </c>
+      <c r="D123" t="s">
+        <v>110</v>
+      </c>
+      <c r="E123" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>20942588</v>
+      </c>
+      <c r="B124" t="s">
+        <v>183</v>
+      </c>
+      <c r="C124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>20942571</v>
+      </c>
+      <c r="B125" t="s">
+        <v>183</v>
+      </c>
+      <c r="C125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>7350056750330</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" t="s">
+        <v>127</v>
+      </c>
+      <c r="E126" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5711953102110</v>
+      </c>
+      <c r="B127" t="s">
+        <v>78</v>
+      </c>
+      <c r="C127" t="s">
+        <v>77</v>
+      </c>
+      <c r="D127" t="s">
+        <v>77</v>
+      </c>
+      <c r="E127" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5711953102141</v>
+      </c>
+      <c r="B128" t="s">
+        <v>78</v>
+      </c>
+      <c r="C128" t="s">
+        <v>77</v>
+      </c>
+      <c r="D128" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2351304507541</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>7311871023009</v>
+      </c>
+      <c r="B130" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" t="s">
+        <v>78</v>
+      </c>
+      <c r="D130" t="s">
+        <v>78</v>
+      </c>
+      <c r="E130" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>7311871023016</v>
+      </c>
+      <c r="B131" t="s">
+        <v>77</v>
+      </c>
+      <c r="C131" t="s">
+        <v>77</v>
+      </c>
+      <c r="D131" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>7340083408311</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" t="s">
+        <v>104</v>
+      </c>
+      <c r="D132" t="s">
+        <v>104</v>
+      </c>
+      <c r="E132" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5202277000409</v>
+      </c>
+      <c r="B133" t="s">
+        <v>185</v>
+      </c>
+      <c r="C133" t="s">
+        <v>185</v>
+      </c>
+      <c r="D133" t="s">
+        <v>185</v>
+      </c>
+      <c r="E133" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>7310867501583</v>
+      </c>
+      <c r="B134" t="s">
+        <v>61</v>
+      </c>
+      <c r="C134" t="s">
+        <v>61</v>
+      </c>
+      <c r="D134" t="s">
+        <v>62</v>
+      </c>
+      <c r="E134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>20991517</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>7340083447556</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" t="s">
+        <v>104</v>
+      </c>
+      <c r="D136" t="s">
+        <v>104</v>
+      </c>
+      <c r="E136" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3228024006076</v>
+      </c>
+      <c r="B137" t="s">
+        <v>106</v>
+      </c>
+      <c r="C137" t="s">
+        <v>106</v>
+      </c>
+      <c r="D137" t="s">
+        <v>62</v>
+      </c>
+      <c r="E137" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>7310867541046</v>
+      </c>
+      <c r="B138" t="s">
+        <v>61</v>
+      </c>
+      <c r="C138" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" t="s">
+        <v>62</v>
+      </c>
+      <c r="E138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>7350027795490</v>
+      </c>
+      <c r="B139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C139" t="s">
+        <v>69</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>7318690113966</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2324543306961</v>
+      </c>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" t="s">
+        <v>33</v>
+      </c>
+      <c r="D141" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>7350068293528</v>
+      </c>
+      <c r="B142" t="s">
+        <v>190</v>
+      </c>
+      <c r="C142" t="s">
+        <v>190</v>
+      </c>
+      <c r="D142" t="s">
+        <v>190</v>
+      </c>
+      <c r="E142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>7350068293504</v>
+      </c>
+      <c r="B143" t="s">
+        <v>190</v>
+      </c>
+      <c r="C143" t="s">
+        <v>190</v>
+      </c>
+      <c r="D143" t="s">
+        <v>190</v>
+      </c>
+      <c r="E143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>7392672004145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" t="s">
+        <v>192</v>
+      </c>
+      <c r="D144" t="s">
+        <v>192</v>
+      </c>
+      <c r="E144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>20874896</v>
+      </c>
+      <c r="B145" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" t="s">
+        <v>33</v>
+      </c>
+      <c r="D145" t="s">
+        <v>33</v>
+      </c>
+      <c r="E145" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>4770265217548</v>
+      </c>
+      <c r="B146" t="s">
+        <v>76</v>
+      </c>
+      <c r="C146" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146" t="s">
+        <v>76</v>
+      </c>
+      <c r="E146" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>4770265217531</v>
+      </c>
+      <c r="B147" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147" t="s">
+        <v>76</v>
+      </c>
+      <c r="D147" t="s">
+        <v>76</v>
+      </c>
+      <c r="E147" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>7310867535618</v>
+      </c>
+      <c r="B148" t="s">
+        <v>61</v>
+      </c>
+      <c r="C148" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148" t="s">
+        <v>62</v>
+      </c>
+      <c r="E148" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>8000430132564</v>
+      </c>
+      <c r="B149" t="s">
+        <v>195</v>
+      </c>
+      <c r="C149" t="s">
+        <v>195</v>
+      </c>
+      <c r="D149" t="s">
+        <v>62</v>
+      </c>
+      <c r="E149" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>5410488037255</v>
+      </c>
+      <c r="B150" t="s">
+        <v>196</v>
+      </c>
+      <c r="C150" t="s">
+        <v>197</v>
+      </c>
+      <c r="D150" t="s">
+        <v>198</v>
+      </c>
+      <c r="E150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>7311441165214</v>
+      </c>
+      <c r="B151" t="s">
+        <v>146</v>
+      </c>
+      <c r="C151" t="s">
+        <v>146</v>
+      </c>
+      <c r="D151" t="s">
+        <v>147</v>
+      </c>
+      <c r="E151" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>7311441165238</v>
+      </c>
+      <c r="B152" t="s">
+        <v>146</v>
+      </c>
+      <c r="C152" t="s">
+        <v>146</v>
+      </c>
+      <c r="D152" t="s">
+        <v>147</v>
+      </c>
+      <c r="E152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>5711953066818</v>
+      </c>
+      <c r="B153" t="s">
+        <v>78</v>
+      </c>
+      <c r="C153" t="s">
+        <v>77</v>
+      </c>
+      <c r="D153" t="s">
+        <v>77</v>
+      </c>
+      <c r="E153" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>4016241040756</v>
+      </c>
+      <c r="B154" t="s">
+        <v>78</v>
+      </c>
+      <c r="C154" t="s">
+        <v>77</v>
+      </c>
+      <c r="D154" t="s">
+        <v>77</v>
+      </c>
+      <c r="E154" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>7310867541039</v>
+      </c>
+      <c r="B155" t="s">
+        <v>61</v>
+      </c>
+      <c r="C155" t="s">
+        <v>61</v>
+      </c>
+      <c r="D155" t="s">
+        <v>62</v>
+      </c>
+      <c r="E155" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>7316150974126</v>
+      </c>
+      <c r="B156" t="s">
+        <v>110</v>
+      </c>
+      <c r="C156" t="s">
+        <v>110</v>
+      </c>
+      <c r="D156" t="s">
+        <v>110</v>
+      </c>
+      <c r="E156" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>7392672004152</v>
+      </c>
+      <c r="B157" t="s">
+        <v>192</v>
+      </c>
+      <c r="C157" t="s">
+        <v>192</v>
+      </c>
+      <c r="D157" t="s">
+        <v>192</v>
+      </c>
+      <c r="E157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>5711953070266</v>
+      </c>
+      <c r="B158" t="s">
+        <v>77</v>
+      </c>
+      <c r="C158" t="s">
+        <v>78</v>
+      </c>
+      <c r="D158" t="s">
+        <v>78</v>
+      </c>
+      <c r="E158" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>7310867533331</v>
+      </c>
+      <c r="B159" t="s">
+        <v>61</v>
+      </c>
+      <c r="C159" t="s">
+        <v>61</v>
+      </c>
+      <c r="D159" t="s">
+        <v>62</v>
+      </c>
+      <c r="E159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>8000430138917</v>
+      </c>
+      <c r="B160" t="s">
+        <v>195</v>
+      </c>
+      <c r="C160" t="s">
+        <v>195</v>
+      </c>
+      <c r="D160" t="s">
+        <v>62</v>
+      </c>
+      <c r="E160" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>7350068293412</v>
+      </c>
+      <c r="B161" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" t="s">
+        <v>190</v>
+      </c>
+      <c r="D161" t="s">
+        <v>190</v>
+      </c>
+      <c r="E161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>7350068293405</v>
+      </c>
+      <c r="B162" t="s">
+        <v>190</v>
+      </c>
+      <c r="C162" t="s">
+        <v>190</v>
+      </c>
+      <c r="D162" t="s">
+        <v>190</v>
+      </c>
+      <c r="E162" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>7318690173458</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>6408432202209</v>
+      </c>
+      <c r="B164" t="s">
+        <v>122</v>
+      </c>
+      <c r="C164" t="s">
+        <v>122</v>
+      </c>
+      <c r="D164" t="s">
+        <v>122</v>
+      </c>
+      <c r="E164" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>6408432202216</v>
+      </c>
+      <c r="B165" t="s">
+        <v>122</v>
+      </c>
+      <c r="C165" t="s">
+        <v>122</v>
+      </c>
+      <c r="D165" t="s">
+        <v>122</v>
+      </c>
+      <c r="E165" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2340386107145</v>
+      </c>
+      <c r="B166" t="s">
+        <v>78</v>
+      </c>
+      <c r="C166" t="s">
+        <v>78</v>
+      </c>
+      <c r="D166" t="s">
+        <v>78</v>
+      </c>
+      <c r="E166" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2340385807169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>78</v>
+      </c>
+      <c r="C167" t="s">
+        <v>78</v>
+      </c>
+      <c r="D167" t="s">
+        <v>78</v>
+      </c>
+      <c r="E167" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>7392672004206</v>
+      </c>
+      <c r="B168" t="s">
+        <v>202</v>
+      </c>
+      <c r="C168" t="s">
+        <v>202</v>
+      </c>
+      <c r="D168" t="s">
+        <v>202</v>
+      </c>
+      <c r="E168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2022001626360</v>
+      </c>
+      <c r="B169" t="s">
+        <v>204</v>
+      </c>
+      <c r="C169" t="s">
+        <v>204</v>
+      </c>
+      <c r="D169" t="s">
+        <v>204</v>
+      </c>
+      <c r="E169" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>7392672004213</v>
+      </c>
+      <c r="B170" t="s">
+        <v>192</v>
+      </c>
+      <c r="C170" t="s">
+        <v>192</v>
+      </c>
+      <c r="D170" t="s">
+        <v>192</v>
+      </c>
+      <c r="E170" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>7392672004169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>192</v>
+      </c>
+      <c r="C171" t="s">
+        <v>192</v>
+      </c>
+      <c r="D171" t="s">
+        <v>192</v>
+      </c>
+      <c r="E171" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>7310861081715</v>
+      </c>
+      <c r="B172" t="s">
+        <v>71</v>
+      </c>
+      <c r="C172" t="s">
+        <v>71</v>
+      </c>
+      <c r="D172" t="s">
+        <v>71</v>
+      </c>
+      <c r="E172" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7318690079873</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>7318690174059</v>
+      </c>
+      <c r="B174" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7318690174066</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>7310867533348</v>
+      </c>
+      <c r="B176" t="s">
+        <v>61</v>
+      </c>
+      <c r="C176" t="s">
+        <v>61</v>
+      </c>
+      <c r="D176" t="s">
+        <v>62</v>
+      </c>
+      <c r="E176" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>7318690116981</v>
+      </c>
+      <c r="B177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>9020200019368</v>
+      </c>
+      <c r="B178" t="s">
+        <v>206</v>
+      </c>
+      <c r="C178" t="s">
+        <v>206</v>
+      </c>
+      <c r="D178" t="s">
+        <v>207</v>
+      </c>
+      <c r="E178" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>9020200019351</v>
+      </c>
+      <c r="B179" t="s">
+        <v>206</v>
+      </c>
+      <c r="C179" t="s">
+        <v>206</v>
+      </c>
+      <c r="D179" t="s">
+        <v>207</v>
+      </c>
+      <c r="E179" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>7340083426506</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>104</v>
+      </c>
+      <c r="D180" t="s">
+        <v>104</v>
+      </c>
+      <c r="E180" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>5202390020407</v>
+      </c>
+      <c r="B181" t="s">
+        <v>209</v>
+      </c>
+      <c r="C181" t="s">
+        <v>209</v>
+      </c>
+      <c r="D181" t="s">
+        <v>209</v>
+      </c>
+      <c r="E181" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>5202390007934</v>
+      </c>
+      <c r="B182" t="s">
+        <v>209</v>
+      </c>
+      <c r="C182" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182" t="s">
+        <v>209</v>
+      </c>
+      <c r="E182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>5760466630245</v>
+      </c>
+      <c r="B183" t="s">
+        <v>77</v>
+      </c>
+      <c r="C183" t="s">
+        <v>77</v>
+      </c>
+      <c r="D183" t="s">
+        <v>77</v>
+      </c>
+      <c r="E183" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>7310861002949</v>
+      </c>
+      <c r="B184" t="s">
+        <v>71</v>
+      </c>
+      <c r="C184" t="s">
+        <v>71</v>
+      </c>
+      <c r="D184" t="s">
+        <v>71</v>
+      </c>
+      <c r="E184" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>7394376616723</v>
+      </c>
+      <c r="B185" t="s">
+        <v>211</v>
+      </c>
+      <c r="C185" t="s">
+        <v>211</v>
+      </c>
+      <c r="D185" t="s">
+        <v>211</v>
+      </c>
+      <c r="E185" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>7318690173830</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>7318690110156</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>7318690123828</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>6408432106590</v>
+      </c>
+      <c r="B189" t="s">
+        <v>122</v>
+      </c>
+      <c r="C189" t="s">
+        <v>122</v>
+      </c>
+      <c r="D189" t="s">
+        <v>122</v>
+      </c>
+      <c r="E189" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>7622210968128</v>
+      </c>
+      <c r="B190" t="s">
+        <v>98</v>
+      </c>
+      <c r="C190" t="s">
+        <v>98</v>
+      </c>
+      <c r="D190" t="s">
+        <v>99</v>
+      </c>
+      <c r="E190" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>7310700676492</v>
+      </c>
+      <c r="B191" t="s">
+        <v>98</v>
+      </c>
+      <c r="C191" t="s">
+        <v>98</v>
+      </c>
+      <c r="D191" t="s">
+        <v>99</v>
+      </c>
+      <c r="E191" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>7318690159377</v>
+      </c>
+      <c r="B192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>5292874000063</v>
+      </c>
+      <c r="B193" t="s">
+        <v>214</v>
+      </c>
+      <c r="C193" t="s">
+        <v>215</v>
+      </c>
+      <c r="D193" t="s">
+        <v>215</v>
+      </c>
+      <c r="E193" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>5711953056710</v>
+      </c>
+      <c r="B194" t="s">
+        <v>78</v>
+      </c>
+      <c r="C194" t="s">
+        <v>77</v>
+      </c>
+      <c r="D194" t="s">
+        <v>77</v>
+      </c>
+      <c r="E194" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>5060376690521</v>
+      </c>
+      <c r="B195" t="s">
+        <v>217</v>
+      </c>
+      <c r="C195" t="s">
+        <v>217</v>
+      </c>
+      <c r="D195" t="s">
+        <v>217</v>
+      </c>
+      <c r="E195" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>8710908981449</v>
+      </c>
+      <c r="B196" t="s">
+        <v>134</v>
+      </c>
+      <c r="C196" t="s">
+        <v>134</v>
+      </c>
+      <c r="D196" t="s">
+        <v>134</v>
+      </c>
+      <c r="E196" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>8710908981494</v>
+      </c>
+      <c r="B197" t="s">
+        <v>134</v>
+      </c>
+      <c r="C197" t="s">
+        <v>134</v>
+      </c>
+      <c r="D197" t="s">
+        <v>134</v>
+      </c>
+      <c r="E197" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>20127084</v>
+      </c>
+      <c r="B198" t="s">
+        <v>219</v>
+      </c>
+      <c r="C198" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" t="s">
+        <v>33</v>
+      </c>
+      <c r="E198" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>7311870813427</v>
+      </c>
+      <c r="B199" t="s">
+        <v>78</v>
+      </c>
+      <c r="C199" t="s">
+        <v>77</v>
+      </c>
+      <c r="D199" t="s">
+        <v>77</v>
+      </c>
+      <c r="E199" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2385033003760</v>
+      </c>
+      <c r="B200" t="s">
+        <v>221</v>
+      </c>
+      <c r="C200" t="s">
+        <v>221</v>
+      </c>
+      <c r="D200" t="s">
+        <v>221</v>
+      </c>
+      <c r="E200" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>7350027791249</v>
+      </c>
+      <c r="B201" t="s">
+        <v>69</v>
+      </c>
+      <c r="C201" t="s">
+        <v>69</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2350342305812</v>
+      </c>
+      <c r="B202" t="s">
+        <v>222</v>
+      </c>
+      <c r="C202" t="s">
+        <v>222</v>
+      </c>
+      <c r="D202" t="s">
+        <v>222</v>
+      </c>
+      <c r="E202" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>7332085900030</v>
+      </c>
+      <c r="B203" t="s">
+        <v>223</v>
+      </c>
+      <c r="C203" t="s">
+        <v>223</v>
+      </c>
+      <c r="D203" t="s">
+        <v>223</v>
+      </c>
+      <c r="E203" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>5060376690538</v>
+      </c>
+      <c r="B204" t="s">
+        <v>217</v>
+      </c>
+      <c r="C204" t="s">
+        <v>217</v>
+      </c>
+      <c r="D204" t="s">
+        <v>217</v>
+      </c>
+      <c r="E204" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2022059472018</v>
+      </c>
+      <c r="B205" t="s">
+        <v>204</v>
+      </c>
+      <c r="C205" t="s">
+        <v>204</v>
+      </c>
+      <c r="D205" t="s">
+        <v>204</v>
+      </c>
+      <c r="E205" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>7394376614804</v>
+      </c>
+      <c r="B206" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206" t="s">
+        <v>211</v>
+      </c>
+      <c r="D206" t="s">
+        <v>211</v>
+      </c>
+      <c r="E206" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>7310865867926</v>
+      </c>
+      <c r="B207" t="s">
+        <v>77</v>
+      </c>
+      <c r="C207" t="s">
+        <v>77</v>
+      </c>
+      <c r="D207" t="s">
+        <v>77</v>
+      </c>
+      <c r="E207" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>7318690170969</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2322125206449</v>
+      </c>
+      <c r="B209" t="s">
+        <v>204</v>
+      </c>
+      <c r="C209" t="s">
+        <v>204</v>
+      </c>
+      <c r="D209" t="s">
+        <v>204</v>
+      </c>
+      <c r="E209" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2351333808879</v>
+      </c>
+      <c r="B210" t="s">
+        <v>64</v>
+      </c>
+      <c r="C210" t="s">
+        <v>64</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>8710908981425</v>
+      </c>
+      <c r="B211" t="s">
+        <v>51</v>
+      </c>
+      <c r="C211" t="s">
+        <v>51</v>
+      </c>
+      <c r="D211" t="s">
+        <v>51</v>
+      </c>
+      <c r="E211" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>20101411</v>
+      </c>
+      <c r="B212" t="s">
+        <v>229</v>
+      </c>
+      <c r="C212" t="s">
+        <v>33</v>
+      </c>
+      <c r="D212" t="s">
+        <v>33</v>
+      </c>
+      <c r="E212" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>8016784000107</v>
+      </c>
+      <c r="B213" t="s">
+        <v>231</v>
+      </c>
+      <c r="C213" t="s">
+        <v>231</v>
+      </c>
+      <c r="D213" t="s">
+        <v>231</v>
+      </c>
+      <c r="E213" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>5202178081316</v>
+      </c>
+      <c r="B214" t="s">
+        <v>232</v>
+      </c>
+      <c r="C214" t="s">
+        <v>232</v>
+      </c>
+      <c r="D214" t="s">
+        <v>232</v>
+      </c>
+      <c r="E214" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>7394376617188</v>
+      </c>
+      <c r="B215" t="s">
+        <v>211</v>
+      </c>
+      <c r="C215" t="s">
+        <v>211</v>
+      </c>
+      <c r="D215" t="s">
+        <v>211</v>
+      </c>
+      <c r="E215" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>7350027795148</v>
+      </c>
+      <c r="B216" t="s">
+        <v>234</v>
+      </c>
+      <c r="C216" t="s">
+        <v>69</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2378007205024</v>
+      </c>
+      <c r="B217" t="s">
+        <v>10</v>
+      </c>
+      <c r="C217" t="s">
+        <v>35</v>
+      </c>
+      <c r="D217" t="s">
+        <v>35</v>
+      </c>
+      <c r="E217" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2322157205267</v>
+      </c>
+      <c r="B218" t="s">
+        <v>204</v>
+      </c>
+      <c r="C218" t="s">
+        <v>204</v>
+      </c>
+      <c r="D218" t="s">
+        <v>204</v>
+      </c>
+      <c r="E218" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2022186172355</v>
+      </c>
+      <c r="B219" t="s">
+        <v>204</v>
+      </c>
+      <c r="C219" t="s">
+        <v>204</v>
+      </c>
+      <c r="D219" t="s">
+        <v>204</v>
+      </c>
+      <c r="E219" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2022016550780</v>
+      </c>
+      <c r="B220" t="s">
+        <v>204</v>
+      </c>
+      <c r="C220" t="s">
+        <v>204</v>
+      </c>
+      <c r="D220" t="s">
+        <v>204</v>
+      </c>
+      <c r="E220" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>8027703000177</v>
+      </c>
+      <c r="B221" t="s">
+        <v>63</v>
+      </c>
+      <c r="C221" t="s">
+        <v>235</v>
+      </c>
+      <c r="D221" t="s">
+        <v>235</v>
+      </c>
+      <c r="E221" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>7310865867933</v>
+      </c>
+      <c r="B222" t="s">
+        <v>77</v>
+      </c>
+      <c r="C222" t="s">
+        <v>77</v>
+      </c>
+      <c r="D222" t="s">
+        <v>77</v>
+      </c>
+      <c r="E222" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>7310867531306</v>
+      </c>
+      <c r="B223" t="s">
+        <v>61</v>
+      </c>
+      <c r="C223" t="s">
+        <v>61</v>
+      </c>
+      <c r="D223" t="s">
+        <v>62</v>
+      </c>
+      <c r="E223" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>7622210585882</v>
+      </c>
+      <c r="B224" t="s">
+        <v>98</v>
+      </c>
+      <c r="C224" t="s">
+        <v>98</v>
+      </c>
+      <c r="D224" t="s">
+        <v>99</v>
+      </c>
+      <c r="E224" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>7350020132100</v>
+      </c>
+      <c r="B225" t="s">
+        <v>237</v>
+      </c>
+      <c r="C225" t="s">
+        <v>238</v>
+      </c>
+      <c r="D225" t="s">
+        <v>238</v>
+      </c>
+      <c r="E225" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>7300156583161</v>
+      </c>
+      <c r="B226" t="s">
+        <v>240</v>
+      </c>
+      <c r="C226" t="s">
+        <v>35</v>
+      </c>
+      <c r="D226" t="s">
+        <v>35</v>
+      </c>
+      <c r="E226" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>7318690081487</v>
+      </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2319284404861</v>
+      </c>
+      <c r="B228" t="s">
+        <v>10</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>7310865866554</v>
+      </c>
+      <c r="B229" t="s">
+        <v>77</v>
+      </c>
+      <c r="C229" t="s">
+        <v>77</v>
+      </c>
+      <c r="D229" t="s">
+        <v>77</v>
+      </c>
+      <c r="E229" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>8032774181038</v>
+      </c>
+      <c r="B230" t="s">
+        <v>241</v>
+      </c>
+      <c r="C230" t="s">
+        <v>242</v>
+      </c>
+      <c r="D230" t="s">
+        <v>242</v>
+      </c>
+      <c r="E230" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>8032774181052</v>
+      </c>
+      <c r="B231" t="s">
+        <v>241</v>
+      </c>
+      <c r="C231" t="s">
+        <v>242</v>
+      </c>
+      <c r="D231" t="s">
+        <v>242</v>
+      </c>
+      <c r="E231" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>7310867531313</v>
+      </c>
+      <c r="B232" t="s">
+        <v>61</v>
+      </c>
+      <c r="C232" t="s">
+        <v>61</v>
+      </c>
+      <c r="D232" t="s">
+        <v>62</v>
+      </c>
+      <c r="E232" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>8710908982057</v>
+      </c>
+      <c r="B233" t="s">
+        <v>134</v>
+      </c>
+      <c r="C233" t="s">
+        <v>134</v>
+      </c>
+      <c r="D233" t="s">
+        <v>134</v>
+      </c>
+      <c r="E233" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>8719200001855</v>
+      </c>
+      <c r="B234" t="s">
+        <v>134</v>
+      </c>
+      <c r="C234" t="s">
+        <v>134</v>
+      </c>
+      <c r="D234" t="s">
+        <v>134</v>
+      </c>
+      <c r="E234" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>6408432202025</v>
+      </c>
+      <c r="B235" t="s">
+        <v>122</v>
+      </c>
+      <c r="C235" t="s">
+        <v>122</v>
+      </c>
+      <c r="D235" t="s">
+        <v>122</v>
+      </c>
+      <c r="E235" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>20822972</v>
+      </c>
+      <c r="B236" t="s">
+        <v>243</v>
+      </c>
+      <c r="C236" t="s">
+        <v>33</v>
+      </c>
+      <c r="D236" t="s">
+        <v>33</v>
+      </c>
+      <c r="E236" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2317231004607</v>
+      </c>
+      <c r="B237" t="s">
+        <v>222</v>
+      </c>
+      <c r="C237" t="s">
+        <v>35</v>
+      </c>
+      <c r="D237" t="s">
+        <v>35</v>
+      </c>
+      <c r="E237" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>8027480000155</v>
+      </c>
+      <c r="B238" t="s">
+        <v>244</v>
+      </c>
+      <c r="C238" t="s">
+        <v>244</v>
+      </c>
+      <c r="D238" t="s">
+        <v>244</v>
+      </c>
+      <c r="E238" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>5411188116615</v>
+      </c>
+      <c r="B239" t="s">
+        <v>83</v>
+      </c>
+      <c r="C239" t="s">
+        <v>83</v>
+      </c>
+      <c r="D239" t="s">
+        <v>84</v>
+      </c>
+      <c r="E239" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>5711953024030</v>
+      </c>
+      <c r="B240" t="s">
+        <v>77</v>
+      </c>
+      <c r="C240" t="s">
+        <v>77</v>
+      </c>
+      <c r="D240" t="s">
+        <v>77</v>
+      </c>
+      <c r="E240" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>8710908980701</v>
+      </c>
+      <c r="B241" t="s">
+        <v>134</v>
+      </c>
+      <c r="C241" t="s">
+        <v>134</v>
+      </c>
+      <c r="D241" t="s">
+        <v>134</v>
+      </c>
+      <c r="E241" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>8033481620476</v>
+      </c>
+      <c r="B242" t="s">
+        <v>245</v>
+      </c>
+      <c r="C242" t="s">
+        <v>246</v>
+      </c>
+      <c r="D242" t="s">
+        <v>246</v>
+      </c>
+      <c r="E242" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>8011387002190</v>
+      </c>
+      <c r="B243" t="s">
+        <v>248</v>
+      </c>
+      <c r="C243" t="s">
+        <v>248</v>
+      </c>
+      <c r="D243" t="s">
+        <v>248</v>
+      </c>
+      <c r="E243" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>7318690081623</v>
+      </c>
+      <c r="B244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>7318690094784</v>
+      </c>
+      <c r="B245" t="s">
+        <v>10</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>7318690165767</v>
+      </c>
+      <c r="B246" t="s">
+        <v>10</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>8710908976582</v>
+      </c>
+      <c r="B247" t="s">
+        <v>51</v>
+      </c>
+      <c r="C247" t="s">
+        <v>51</v>
+      </c>
+      <c r="D247" t="s">
+        <v>51</v>
+      </c>
+      <c r="E247" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2317230905844</v>
+      </c>
+      <c r="B248" t="s">
+        <v>222</v>
+      </c>
+      <c r="C248" t="s">
+        <v>35</v>
+      </c>
+      <c r="D248" t="s">
+        <v>35</v>
+      </c>
+      <c r="E248" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2361905104094</v>
+      </c>
+      <c r="B249" t="s">
+        <v>249</v>
+      </c>
+      <c r="C249" t="s">
+        <v>249</v>
+      </c>
+      <c r="D249" t="s">
+        <v>249</v>
+      </c>
+      <c r="E249" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2361921004675</v>
+      </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+      <c r="C250" t="s">
+        <v>249</v>
+      </c>
+      <c r="D250" t="s">
+        <v>249</v>
+      </c>
+      <c r="E250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2317231205370</v>
+      </c>
+      <c r="B251" t="s">
+        <v>222</v>
+      </c>
+      <c r="C251" t="s">
+        <v>35</v>
+      </c>
+      <c r="D251" t="s">
+        <v>35</v>
+      </c>
+      <c r="E251" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>7394376665066</v>
+      </c>
+      <c r="B252" t="s">
+        <v>211</v>
+      </c>
+      <c r="C252" t="s">
+        <v>211</v>
+      </c>
+      <c r="D252" t="s">
+        <v>211</v>
+      </c>
+      <c r="E252" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>3279231145003</v>
+      </c>
+      <c r="B253" t="s">
+        <v>250</v>
+      </c>
+      <c r="C253" t="s">
+        <v>250</v>
+      </c>
+      <c r="D253" t="s">
+        <v>250</v>
+      </c>
+      <c r="E253" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>3279231164011</v>
+      </c>
+      <c r="B254" t="s">
+        <v>250</v>
+      </c>
+      <c r="C254" t="s">
+        <v>250</v>
+      </c>
+      <c r="D254" t="s">
+        <v>250</v>
+      </c>
+      <c r="E254" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2354520907225</v>
+      </c>
+      <c r="B255" t="s">
+        <v>251</v>
+      </c>
+      <c r="C255" t="s">
+        <v>251</v>
+      </c>
+      <c r="D255" t="s">
+        <v>251</v>
+      </c>
+      <c r="E255" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>7318690082286</v>
+      </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>20823603</v>
+      </c>
+      <c r="B257" t="s">
+        <v>252</v>
+      </c>
+      <c r="C257" t="s">
+        <v>33</v>
+      </c>
+      <c r="D257" t="s">
+        <v>33</v>
+      </c>
+      <c r="E257" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>3161910238710</v>
+      </c>
+      <c r="B258" t="s">
+        <v>152</v>
+      </c>
+      <c r="C258" t="s">
+        <v>152</v>
+      </c>
+      <c r="D258" t="s">
+        <v>153</v>
+      </c>
+      <c r="E258" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>73503705</v>
+      </c>
+      <c r="B259" t="s">
+        <v>51</v>
+      </c>
+      <c r="C259" t="s">
+        <v>51</v>
+      </c>
+      <c r="D259" t="s">
+        <v>51</v>
+      </c>
+      <c r="E259" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>8722700119418</v>
+      </c>
+      <c r="B260" t="s">
+        <v>51</v>
+      </c>
+      <c r="C260" t="s">
+        <v>51</v>
+      </c>
+      <c r="D260" t="s">
+        <v>51</v>
+      </c>
+      <c r="E260" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>73503750</v>
+      </c>
+      <c r="B261" t="s">
+        <v>51</v>
+      </c>
+      <c r="C261" t="s">
+        <v>51</v>
+      </c>
+      <c r="D261" t="s">
+        <v>51</v>
+      </c>
+      <c r="E261" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>8718114815381</v>
+      </c>
+      <c r="B262" t="s">
+        <v>51</v>
+      </c>
+      <c r="C262" t="s">
+        <v>51</v>
+      </c>
+      <c r="D262" t="s">
+        <v>51</v>
+      </c>
+      <c r="E262" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>73503736</v>
+      </c>
+      <c r="B263" t="s">
+        <v>51</v>
+      </c>
+      <c r="C263" t="s">
+        <v>51</v>
+      </c>
+      <c r="D263" t="s">
+        <v>51</v>
+      </c>
+      <c r="E263" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>7350033490181</v>
+      </c>
+      <c r="B264" t="s">
+        <v>255</v>
+      </c>
+      <c r="C264" t="s">
+        <v>255</v>
+      </c>
+      <c r="D264" t="s">
+        <v>255</v>
+      </c>
+      <c r="E264" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2022184131484</v>
+      </c>
+      <c r="B265" t="s">
+        <v>204</v>
+      </c>
+      <c r="C265" t="s">
+        <v>204</v>
+      </c>
+      <c r="D265" t="s">
+        <v>204</v>
+      </c>
+      <c r="E265" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>7310394001150</v>
+      </c>
+      <c r="B266" t="s">
+        <v>134</v>
+      </c>
+      <c r="C266" t="s">
+        <v>134</v>
+      </c>
+      <c r="D266" t="s">
+        <v>134</v>
+      </c>
+      <c r="E266" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>7310867501767</v>
+      </c>
+      <c r="B267" t="s">
+        <v>61</v>
+      </c>
+      <c r="C267" t="s">
+        <v>61</v>
+      </c>
+      <c r="D267" t="s">
+        <v>62</v>
+      </c>
+      <c r="E267" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>7340083426520</v>
+      </c>
+      <c r="B268" t="s">
+        <v>10</v>
+      </c>
+      <c r="C268" t="s">
+        <v>104</v>
+      </c>
+      <c r="D268" t="s">
+        <v>104</v>
+      </c>
+      <c r="E268" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2354523307459</v>
+      </c>
+      <c r="B269" t="s">
+        <v>251</v>
+      </c>
+      <c r="C269" t="s">
+        <v>251</v>
+      </c>
+      <c r="D269" t="s">
+        <v>251</v>
+      </c>
+      <c r="E269" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>7310867502306</v>
+      </c>
+      <c r="B270" t="s">
+        <v>61</v>
+      </c>
+      <c r="C270" t="s">
+        <v>61</v>
+      </c>
+      <c r="D270" t="s">
+        <v>62</v>
+      </c>
+      <c r="E270" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2354523108070</v>
+      </c>
+      <c r="B271" t="s">
+        <v>251</v>
+      </c>
+      <c r="C271" t="s">
+        <v>251</v>
+      </c>
+      <c r="D271" t="s">
+        <v>251</v>
+      </c>
+      <c r="E271" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>3073781088090</v>
+      </c>
+      <c r="B272" t="s">
+        <v>96</v>
+      </c>
+      <c r="C272" t="s">
+        <v>96</v>
+      </c>
+      <c r="D272" t="s">
+        <v>96</v>
+      </c>
+      <c r="E272" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>7340083426513</v>
+      </c>
+      <c r="B273" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273" t="s">
+        <v>104</v>
+      </c>
+      <c r="D273" t="s">
+        <v>104</v>
+      </c>
+      <c r="E273" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>20435646</v>
+      </c>
+      <c r="B274" t="s">
+        <v>259</v>
+      </c>
+      <c r="C274" t="s">
+        <v>33</v>
+      </c>
+      <c r="D274" t="s">
+        <v>33</v>
+      </c>
+      <c r="E274" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>7318690079873</v>
+      </c>
+      <c r="B275" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>7300156577207</v>
+      </c>
+      <c r="B276" t="s">
+        <v>10</v>
+      </c>
+      <c r="C276" t="s">
+        <v>35</v>
+      </c>
+      <c r="D276" t="s">
+        <v>35</v>
+      </c>
+      <c r="E276" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>6408432201769</v>
+      </c>
+      <c r="B277" t="s">
+        <v>122</v>
+      </c>
+      <c r="C277" t="s">
+        <v>122</v>
+      </c>
+      <c r="D277" t="s">
+        <v>122</v>
+      </c>
+      <c r="E277" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>7310390011771</v>
+      </c>
+      <c r="B278" t="s">
+        <v>134</v>
+      </c>
+      <c r="C278" t="s">
+        <v>134</v>
+      </c>
+      <c r="D278" t="s">
+        <v>134</v>
+      </c>
+      <c r="E278" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>7318690162896</v>
+      </c>
+      <c r="B279" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>7318690162957</v>
+      </c>
+      <c r="B280" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>7318690165675</v>
+      </c>
+      <c r="B281" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/app/files/RDS_api_0000.xlsx
+++ b/app/files/RDS_api_0000.xlsx
@@ -56,295 +56,295 @@
     <t>product_description</t>
   </si>
   <si>
+    <t>Social: Animal Welfare: Leaping Bunny Animal Welfare Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social: Animal Welfare: Vegan Society </t>
+  </si>
+  <si>
+    <t>Social: Animal Welfare: Cruelty-Free</t>
+  </si>
+  <si>
+    <t>Social: Animal Welfare: Cruelty Free and Vegan (Rabbit Face)</t>
+  </si>
+  <si>
+    <t>Social: Animal Welfare: European Vegetarian Union / V-Label</t>
+  </si>
+  <si>
+    <t>Social: Animal Welfare: Vegetarian Society</t>
+  </si>
+  <si>
+    <t>Social: Animal Welfare: Certified Vegan (Vegan.org)</t>
+  </si>
+  <si>
+    <t>Social: Animal Welfare: Dolphin Safe/Dolphin Friendly</t>
+  </si>
+  <si>
+    <t>Social: Animal Welfare: Self-Declared Vegan</t>
+  </si>
+  <si>
+    <t>Environmental: CO2/Carbon: Storage chilled</t>
+  </si>
+  <si>
+    <t>Environmental: CO2/Carbon: Storage frozen</t>
+  </si>
+  <si>
+    <t>Environmental: CO2/Carbon: Storage shelf stable</t>
+  </si>
+  <si>
+    <t>Environmental: CO2/Carbon: Climate Compensated Zero Emission Transports</t>
+  </si>
+  <si>
+    <t>Environmental: CO2/Carbon: Imported Product</t>
+  </si>
+  <si>
+    <t>Environmental: Firm-Wide: Green Dot Finanical Contribution to Recycling</t>
+  </si>
+  <si>
+    <t>Environmental: Firm-Wide: A.I.S.E. Voluntary Sustainability Intiative</t>
+  </si>
+  <si>
+    <t>Environmental: Firm-Wide: CO2 Compensated</t>
+  </si>
+  <si>
     <t>Environmental: Firm-Wide: B Corp</t>
   </si>
   <si>
+    <t>Environmental: Firm-Wide: 1% for the planet</t>
+  </si>
+  <si>
+    <t>Social: Firm-Wide: Good Shopping Guide Ethical Award</t>
+  </si>
+  <si>
+    <t>Social: Health: Asthma and Allergy Association / Asthma Allergy Nordic Label</t>
+  </si>
+  <si>
+    <t>Social: Health : Green Keyhole</t>
+  </si>
+  <si>
+    <t>Social: Health : Eesti Allergialiit tunnustab</t>
+  </si>
+  <si>
+    <t>Other: Ingredients: Ingredients</t>
+  </si>
+  <si>
+    <t>Environmental: Life Cycle EcoLabel: Nordic Swan Eco-Label</t>
+  </si>
+  <si>
+    <t>Environmental: Life Cycle EcoLabel: EU Ecolabel</t>
+  </si>
+  <si>
+    <t>Environmental: Life Cycle EcoLabel: Good Environmental Choice / Bra Miljöval</t>
+  </si>
+  <si>
+    <t>Environmental: Life Cycle EcoLabel: Blue Angel</t>
+  </si>
+  <si>
+    <t>Environmental: Organic: Demeter</t>
+  </si>
+  <si>
+    <t>Environmental: Organic: BioAgriCert</t>
+  </si>
+  <si>
+    <t>Environmental: Organic: EcoCert</t>
+  </si>
+  <si>
+    <t>Environmental: Organic: EU Organic Logo</t>
+  </si>
+  <si>
+    <t>Environmental: Organic: ICEA Certificato Biologico</t>
+  </si>
+  <si>
+    <t>Environmental: Organic: KRAV</t>
+  </si>
+  <si>
+    <t>Environmental: Organic: Bio Suisse</t>
+  </si>
+  <si>
     <t>Environmental: Organic: Debio</t>
   </si>
   <si>
-    <t>Environmental: Life Cycle EcoLabel: EU Ecolabel</t>
+    <t>Environmental: Organic: Self-Declared Organic</t>
+  </si>
+  <si>
+    <t>Environmental: Organic: Soil Association Organic</t>
+  </si>
+  <si>
+    <t>Environmental: Origin : In European Union or EEA</t>
   </si>
   <si>
     <t>Environmental: Origin : From Sweden</t>
   </si>
   <si>
-    <t>Environmental: Organic: Demeter</t>
-  </si>
-  <si>
-    <t>Environmental: Life Cycle EcoLabel: Good Environmental Choice / Bra Miljöval</t>
-  </si>
-  <si>
-    <t>Environmental: Life Cycle EcoLabel: Nordic Swan Eco-Label</t>
-  </si>
-  <si>
-    <t>Environmental: Firm-Wide: 1% for the planet</t>
-  </si>
-  <si>
-    <t>Environmental: Firm-Wide: Green Dot Finanical Contribution to Recycling</t>
-  </si>
-  <si>
-    <t>Environmental: Organic: Soil Association Organic</t>
-  </si>
-  <si>
-    <t>Environmental: Firm-Wide: A.I.S.E. Voluntary Sustainability Intiative</t>
+    <t>Social: Other: Bondeägda / Farmer Owned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental: Other: Marine Stewardship Council </t>
+  </si>
+  <si>
+    <t>Environmental: Other: Natrue</t>
+  </si>
+  <si>
+    <t>Environmental: Other: Rainforest Alliance Certified</t>
+  </si>
+  <si>
+    <t>Environmental: Other: UTZ Certified</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Packaging Made of Recycled Materials</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Recyclable Mobius Loop (able to be recycled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental: Packaging/Recycling: Made of 100% Recycled Materials </t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Recycled</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Recyclable</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Compostability Mark of European Bioplastics</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Forest Stewardship Council (FSC)</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: PEFC</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Terracycle</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Type: Skinpack</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Type: Carton</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Type: Bottle</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Type: Miscellaneous</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Type: Flexible</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Type: Flexible stand-up pouch</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Type: Tub</t>
   </si>
   <si>
     <t>Environmental: Packaging/Recycling: Package Type: Aerosol</t>
   </si>
   <si>
-    <t>Environmental: Organic: Bio Suisse</t>
-  </si>
-  <si>
-    <t>Environmental: Life Cycle EcoLabel: Blue Angel</t>
+    <t>Environmental: Packaging/Recycling: Package Type: Tray</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Type: Jar</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Type: Tube</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Plastic unspecified</t>
   </si>
   <si>
     <t>Environmental: Packaging/Recycling: Package Material: Board plastic lined</t>
   </si>
   <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Plastic HDPE</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Miscellaneous</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Multi layer board</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Plastic other</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Plastic PS</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Plastic PP</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Plastic PET</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Metal steel</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Metallised Film</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Multi laminate</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Solid white board</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Glass plain</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Metal aluminium</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Paper plastic lined</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Plastic LDPE</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Paper foil lined</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Plastic PE</t>
+  </si>
+  <si>
     <t>Environmental: Packaging/Recycling: Package Material: Board white lined</t>
   </si>
   <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Paper plain</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material: Ceramic</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material Secondary: Paper plain</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material Secondary: Plastic unspecified</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Material Secondary: Plastic other</t>
+  </si>
+  <si>
     <t>Environmental: Packaging/Recycling: Package Material Secondary: Board white lined</t>
   </si>
   <si>
-    <t>Environmental: Packaging/Recycling: Package Type: Bottle</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Type: Carton</t>
+    <t>Environmental: Packaging/Recycling: Package Material Secondary: Wood</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Type Secondary: Flexible</t>
+  </si>
+  <si>
+    <t>Environmental: Packaging/Recycling: Package Type Secondary: Sleeve</t>
   </si>
   <si>
     <t>Environmental: Packaging/Recycling: Package Type Secondary: Carton</t>
   </si>
   <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Ceramic</t>
-  </si>
-  <si>
-    <t>Environmental: Organic: EcoCert</t>
-  </si>
-  <si>
-    <t>Environmental: Organic: EU Organic Logo</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Type: Flexible</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Type Secondary: Flexible</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Type: Flexible stand-up pouch</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Forest Stewardship Council (FSC)</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Glass plain</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Type: Jar</t>
-  </si>
-  <si>
-    <t>Environmental: Organic: KRAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental: Other: Marine Stewardship Council </t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Metal aluminium</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Metal steel</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Metallised Film</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Type: Miscellaneous</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Miscellaneous</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Multi laminate</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Multi layer board</t>
-  </si>
-  <si>
-    <t>Environmental: Other: Natrue</t>
-  </si>
-  <si>
-    <t>Environmental: Organic: Self-Declared Organic</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Paper foil lined</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Paper plain</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material Secondary: Paper plain</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Paper plastic lined</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Plastic HDPE</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Plastic LDPE</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Plastic other</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material Secondary: Plastic other</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Plastic PE</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Plastic PET</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Plastic PP</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Plastic PS</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Plastic unspecified</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material Secondary: Plastic unspecified</t>
-  </si>
-  <si>
-    <t>Environmental: Other: Rainforest Alliance Certified</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Type: Skinpack</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Type Secondary: Sleeve</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material: Solid white board</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Type: Tray</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Type: Tub</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Type: Tube</t>
-  </si>
-  <si>
-    <t>Environmental: Other: UTZ Certified</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Package Material Secondary: Wood</t>
-  </si>
-  <si>
-    <t>Environmental: CO2/Carbon: Storage chilled</t>
-  </si>
-  <si>
-    <t>Environmental: CO2/Carbon: Storage frozen</t>
-  </si>
-  <si>
-    <t>Environmental: CO2/Carbon: Storage shelf stable</t>
-  </si>
-  <si>
-    <t>Environmental: CO2/Carbon: Imported Product</t>
-  </si>
-  <si>
-    <t>Environmental: Firm-Wide: CO2 Compensated</t>
-  </si>
-  <si>
-    <t>Environmental: Origin : In European Union or EEA</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Packaging Made of Recycled Materials</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Recyclable Mobius Loop (able to be recycled)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental: Packaging/Recycling: Made of 100% Recycled Materials </t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Compostability Mark of European Bioplastics</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: PEFC</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Terracycle</t>
-  </si>
-  <si>
-    <t>Environmental: Organic: BioAgriCert</t>
-  </si>
-  <si>
-    <t>Environmental: CO2/Carbon: Climate Compensated Zero Emission Transports</t>
-  </si>
-  <si>
-    <t>Environmental: Organic: ICEA Certificato Biologico</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Recyclable</t>
-  </si>
-  <si>
-    <t>Environmental: Packaging/Recycling: Recycled</t>
-  </si>
-  <si>
-    <t>Other: Ingredients: Ingredients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social: Animal Welfare: Vegan Society </t>
-  </si>
-  <si>
-    <t>Social: Animal Welfare: Certified Vegan (Vegan.org)</t>
-  </si>
-  <si>
-    <t>Social: Health : Eesti Allergialiit tunnustab</t>
-  </si>
-  <si>
     <t>Social: Social Welfare: Fair Trade</t>
   </si>
   <si>
     <t>Social: Social Welfare: Hand In Hand</t>
-  </si>
-  <si>
-    <t>Social: Animal Welfare: Leaping Bunny Animal Welfare Label</t>
-  </si>
-  <si>
-    <t>Social: Animal Welfare: Cruelty Free and Vegan (Rabbit Face)</t>
-  </si>
-  <si>
-    <t>Social: Animal Welfare: Dolphin Safe/Dolphin Friendly</t>
-  </si>
-  <si>
-    <t>Social: Animal Welfare: Self-Declared Vegan</t>
-  </si>
-  <si>
-    <t>Social: Firm-Wide: Good Shopping Guide Ethical Award</t>
-  </si>
-  <si>
-    <t>Social: Health: Asthma and Allergy Association / Asthma Allergy Nordic Label</t>
-  </si>
-  <si>
-    <t>Social: Other: Bondeägda / Farmer Owned</t>
-  </si>
-  <si>
-    <t>Social: Animal Welfare: Cruelty-Free</t>
-  </si>
-  <si>
-    <t>Social: Health : Green Keyhole</t>
-  </si>
-  <si>
-    <t>Social: Animal Welfare: European Vegetarian Union / V-Label</t>
-  </si>
-  <si>
-    <t>Social: Animal Welfare: Vegetarian Society</t>
   </si>
   <si>
     <t>5701092110732</t>
@@ -7719,7 +7719,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -7756,10 +7756,7 @@
       <c r="N2" t="s">
         <v>120</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
+      <c r="BL2">
         <v>1</v>
       </c>
     </row>
@@ -7839,7 +7836,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -7876,8 +7873,14 @@
       <c r="N5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -7913,6 +7916,15 @@
       </c>
       <c r="N6" t="s">
         <v>153</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -7953,7 +7965,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -7990,8 +8002,11 @@
       <c r="N8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BN8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>169</v>
       </c>
@@ -8028,8 +8043,14 @@
       <c r="N9" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="BK9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -8066,8 +8087,20 @@
       <c r="N10" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="BL10">
+        <v>1</v>
+      </c>
+      <c r="DB10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>184</v>
       </c>
@@ -8103,6 +8136,12 @@
       </c>
       <c r="N11" t="s">
         <v>189</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="BK11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -8143,7 +8182,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -8179,6 +8218,18 @@
       </c>
       <c r="N13" t="s">
         <v>205</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="BK13">
+        <v>1</v>
+      </c>
+      <c r="BL13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -8219,7 +8270,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>215</v>
       </c>
@@ -8256,8 +8307,14 @@
       <c r="N15" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BW15">
+        <v>1</v>
+      </c>
+      <c r="CW15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>222</v>
       </c>
@@ -8294,8 +8351,17 @@
       <c r="N16" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="BL16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -8332,8 +8398,11 @@
       <c r="N17" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="CW17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>236</v>
       </c>
@@ -8369,15 +8438,6 @@
       </c>
       <c r="N18" t="s">
         <v>241</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -8456,7 +8516,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>256</v>
       </c>
@@ -8493,8 +8553,23 @@
       <c r="N21" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="BK21">
+        <v>1</v>
+      </c>
+      <c r="BL21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>262</v>
       </c>
@@ -8534,16 +8609,16 @@
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
       <c r="AF22">
         <v>1</v>
       </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AR22">
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="BK22">
+        <v>1</v>
+      </c>
+      <c r="BL22">
         <v>1</v>
       </c>
     </row>
@@ -8623,7 +8698,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>278</v>
       </c>
@@ -8660,17 +8735,14 @@
       <c r="N25" t="s">
         <v>283</v>
       </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
-      <c r="BB25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -8707,17 +8779,14 @@
       <c r="N26" t="s">
         <v>288</v>
       </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="BB26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>289</v>
       </c>
@@ -8754,8 +8823,17 @@
       <c r="N27" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="BL27">
+        <v>1</v>
+      </c>
+      <c r="BW27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>294</v>
       </c>
@@ -8791,6 +8869,12 @@
       </c>
       <c r="N28" t="s">
         <v>298</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="BW28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -9177,7 +9261,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>306</v>
       </c>
@@ -9214,8 +9298,11 @@
       <c r="N2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>314</v>
       </c>
@@ -9251,6 +9338,12 @@
       </c>
       <c r="N3" t="s">
         <v>322</v>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9329,7 +9422,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>338</v>
       </c>
@@ -9366,8 +9459,14 @@
       <c r="N6" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>345</v>
       </c>
@@ -9403,6 +9502,12 @@
       </c>
       <c r="N7" t="s">
         <v>350</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -9443,7 +9548,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -9479,6 +9584,12 @@
       </c>
       <c r="N9" t="s">
         <v>365</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -9671,7 +9782,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>403</v>
       </c>
@@ -9707,6 +9818,9 @@
       </c>
       <c r="N15" t="s">
         <v>411</v>
+      </c>
+      <c r="BL15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -9747,7 +9861,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>420</v>
       </c>
@@ -9784,8 +9898,11 @@
       <c r="N17" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>431</v>
       </c>
@@ -9822,8 +9939,11 @@
       <c r="N18" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>439</v>
       </c>
@@ -9859,6 +9979,24 @@
       </c>
       <c r="N19" t="s">
         <v>444</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <v>1</v>
+      </c>
+      <c r="BL19">
+        <v>1</v>
+      </c>
+      <c r="BN19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -9937,7 +10075,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>457</v>
       </c>
@@ -9974,8 +10112,17 @@
       <c r="N22" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB22">
+        <v>1</v>
+      </c>
+      <c r="BL22">
+        <v>1</v>
+      </c>
+      <c r="BN22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>463</v>
       </c>
@@ -10012,8 +10159,11 @@
       <c r="N23" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>470</v>
       </c>
@@ -10049,6 +10199,9 @@
       </c>
       <c r="N24" t="s">
         <v>475</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -10279,7 +10432,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>522</v>
       </c>
@@ -10316,7 +10469,19 @@
       <c r="N31" t="s">
         <v>529</v>
       </c>
-      <c r="CE31">
+      <c r="AS31">
+        <v>1</v>
+      </c>
+      <c r="AV31">
+        <v>1</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="BB31">
+        <v>1</v>
+      </c>
+      <c r="BN31">
         <v>1</v>
       </c>
     </row>
@@ -10358,7 +10523,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>537</v>
       </c>
@@ -10395,8 +10560,11 @@
       <c r="N33" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>543</v>
       </c>
@@ -10432,6 +10600,18 @@
       </c>
       <c r="N34" t="s">
         <v>548</v>
+      </c>
+      <c r="AS34">
+        <v>1</v>
+      </c>
+      <c r="AV34">
+        <v>1</v>
+      </c>
+      <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="BB34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -10472,7 +10652,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>557</v>
       </c>
@@ -10509,8 +10689,11 @@
       <c r="N36" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>565</v>
       </c>
@@ -10546,6 +10729,9 @@
       </c>
       <c r="N37" t="s">
         <v>570</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -10662,7 +10848,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>588</v>
       </c>
@@ -10699,8 +10885,11 @@
       <c r="N41" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>595</v>
       </c>
@@ -10736,6 +10925,12 @@
       </c>
       <c r="N42" t="s">
         <v>600</v>
+      </c>
+      <c r="AS42">
+        <v>1</v>
+      </c>
+      <c r="AY42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -10814,7 +11009,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>613</v>
       </c>
@@ -10851,8 +11046,23 @@
       <c r="N45" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AS45">
+        <v>1</v>
+      </c>
+      <c r="AV45">
+        <v>1</v>
+      </c>
+      <c r="AY45">
+        <v>1</v>
+      </c>
+      <c r="BB45">
+        <v>1</v>
+      </c>
+      <c r="BL45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>618</v>
       </c>
@@ -10888,6 +11098,21 @@
       </c>
       <c r="N46" t="s">
         <v>622</v>
+      </c>
+      <c r="AS46">
+        <v>1</v>
+      </c>
+      <c r="AV46">
+        <v>1</v>
+      </c>
+      <c r="AY46">
+        <v>1</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BL46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -11004,7 +11229,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>642</v>
       </c>
@@ -11041,8 +11266,20 @@
       <c r="N50" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="AS50">
+        <v>1</v>
+      </c>
+      <c r="AV50">
+        <v>1</v>
+      </c>
+      <c r="AY50">
+        <v>1</v>
+      </c>
+      <c r="BB50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>648</v>
       </c>
@@ -11079,11 +11316,11 @@
       <c r="N51" t="s">
         <v>655</v>
       </c>
-      <c r="CE51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>656</v>
       </c>
@@ -11120,8 +11357,11 @@
       <c r="N52" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>662</v>
       </c>
@@ -11157,6 +11397,12 @@
       </c>
       <c r="N53" t="s">
         <v>666</v>
+      </c>
+      <c r="AS53">
+        <v>1</v>
+      </c>
+      <c r="AY53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -11197,7 +11443,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>674</v>
       </c>
@@ -11233,6 +11479,27 @@
       </c>
       <c r="N55" t="s">
         <v>678</v>
+      </c>
+      <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AS55">
+        <v>1</v>
+      </c>
+      <c r="AV55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>1</v>
+      </c>
+      <c r="BB55">
+        <v>1</v>
+      </c>
+      <c r="BL55">
+        <v>1</v>
+      </c>
+      <c r="BN55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -11273,7 +11540,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>686</v>
       </c>
@@ -11309,6 +11576,18 @@
       </c>
       <c r="N57" t="s">
         <v>690</v>
+      </c>
+      <c r="AS57">
+        <v>1</v>
+      </c>
+      <c r="AV57">
+        <v>1</v>
+      </c>
+      <c r="AY57">
+        <v>1</v>
+      </c>
+      <c r="BB57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -11349,7 +11628,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>696</v>
       </c>
@@ -11385,6 +11664,9 @@
       </c>
       <c r="N59" t="s">
         <v>702</v>
+      </c>
+      <c r="BB59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -11425,7 +11707,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>710</v>
       </c>
@@ -11461,6 +11743,18 @@
       </c>
       <c r="N61" t="s">
         <v>716</v>
+      </c>
+      <c r="AS61">
+        <v>1</v>
+      </c>
+      <c r="AV61">
+        <v>1</v>
+      </c>
+      <c r="AY61">
+        <v>1</v>
+      </c>
+      <c r="BN61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -11501,7 +11795,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>723</v>
       </c>
@@ -11537,6 +11831,12 @@
       </c>
       <c r="N63" t="s">
         <v>730</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="BL63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -11615,7 +11915,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>743</v>
       </c>
@@ -11651,6 +11951,21 @@
       </c>
       <c r="N66" t="s">
         <v>748</v>
+      </c>
+      <c r="AS66">
+        <v>1</v>
+      </c>
+      <c r="AV66">
+        <v>1</v>
+      </c>
+      <c r="AY66">
+        <v>1</v>
+      </c>
+      <c r="BB66">
+        <v>1</v>
+      </c>
+      <c r="BN66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -11729,7 +12044,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>764</v>
       </c>
@@ -11765,6 +12080,15 @@
       </c>
       <c r="N69" t="s">
         <v>768</v>
+      </c>
+      <c r="AR69">
+        <v>1</v>
+      </c>
+      <c r="AS69">
+        <v>1</v>
+      </c>
+      <c r="AY69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -11957,7 +12281,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>797</v>
       </c>
@@ -11993,6 +12317,12 @@
       </c>
       <c r="N75" t="s">
         <v>802</v>
+      </c>
+      <c r="BL75">
+        <v>1</v>
+      </c>
+      <c r="BN75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -12033,7 +12363,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="77" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>811</v>
       </c>
@@ -12070,11 +12400,14 @@
       <c r="N77" t="s">
         <v>814</v>
       </c>
-      <c r="CE77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AS77">
+        <v>1</v>
+      </c>
+      <c r="AY77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>815</v>
       </c>
@@ -12111,8 +12444,14 @@
       <c r="N78" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BG78">
+        <v>1</v>
+      </c>
+      <c r="BL78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>824</v>
       </c>
@@ -12148,6 +12487,21 @@
       </c>
       <c r="N79" t="s">
         <v>829</v>
+      </c>
+      <c r="AS79">
+        <v>1</v>
+      </c>
+      <c r="AV79">
+        <v>1</v>
+      </c>
+      <c r="AX79">
+        <v>1</v>
+      </c>
+      <c r="AY79">
+        <v>1</v>
+      </c>
+      <c r="BN79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -12492,7 +12846,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>889</v>
       </c>
@@ -12529,8 +12883,11 @@
       <c r="N89" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>895</v>
       </c>
@@ -12567,8 +12924,20 @@
       <c r="N90" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AS90">
+        <v>1</v>
+      </c>
+      <c r="AV90">
+        <v>1</v>
+      </c>
+      <c r="AY90">
+        <v>1</v>
+      </c>
+      <c r="BB90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>900</v>
       </c>
@@ -12604,6 +12973,9 @@
       </c>
       <c r="N91" t="s">
         <v>905</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -12644,7 +13016,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>912</v>
       </c>
@@ -12680,6 +13052,9 @@
       </c>
       <c r="N93" t="s">
         <v>917</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -12872,7 +13247,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>948</v>
       </c>
@@ -12908,6 +13283,9 @@
       </c>
       <c r="N99" t="s">
         <v>952</v>
+      </c>
+      <c r="BB99">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -13024,7 +13402,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>971</v>
       </c>
@@ -13061,8 +13439,20 @@
       <c r="N103" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AS103">
+        <v>1</v>
+      </c>
+      <c r="AV103">
+        <v>1</v>
+      </c>
+      <c r="AY103">
+        <v>1</v>
+      </c>
+      <c r="BB103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>978</v>
       </c>
@@ -13099,8 +13489,20 @@
       <c r="N104" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="AS104">
+        <v>1</v>
+      </c>
+      <c r="AY104">
+        <v>1</v>
+      </c>
+      <c r="BN104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>984</v>
       </c>
@@ -13136,6 +13538,12 @@
       </c>
       <c r="N105" t="s">
         <v>988</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="BL105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -13252,7 +13660,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1010</v>
       </c>
@@ -13289,8 +13697,11 @@
       <c r="N109" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BN109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1016</v>
       </c>
@@ -13327,8 +13738,11 @@
       <c r="N110" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BN110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1022</v>
       </c>
@@ -13365,8 +13779,32 @@
       <c r="N111" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AQ111">
+        <v>1</v>
+      </c>
+      <c r="AS111">
+        <v>1</v>
+      </c>
+      <c r="AV111">
+        <v>1</v>
+      </c>
+      <c r="AY111">
+        <v>1</v>
+      </c>
+      <c r="BB111">
+        <v>1</v>
+      </c>
+      <c r="BL111">
+        <v>1</v>
+      </c>
+      <c r="BN111">
+        <v>1</v>
+      </c>
+      <c r="BZ111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1028</v>
       </c>
@@ -13403,8 +13841,17 @@
       <c r="N112" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB112">
+        <v>1</v>
+      </c>
+      <c r="BL112">
+        <v>1</v>
+      </c>
+      <c r="BN112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1034</v>
       </c>
@@ -13440,6 +13887,15 @@
       </c>
       <c r="N113" t="s">
         <v>1039</v>
+      </c>
+      <c r="AV113">
+        <v>1</v>
+      </c>
+      <c r="AY113">
+        <v>1</v>
+      </c>
+      <c r="BL113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -13518,7 +13974,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1052</v>
       </c>
@@ -13555,8 +14011,11 @@
       <c r="N116" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1058</v>
       </c>
@@ -13593,8 +14052,11 @@
       <c r="N117" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1063</v>
       </c>
@@ -13631,8 +14093,11 @@
       <c r="N118" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1070</v>
       </c>
@@ -13668,6 +14133,12 @@
       </c>
       <c r="N119" t="s">
         <v>1075</v>
+      </c>
+      <c r="BB119">
+        <v>1</v>
+      </c>
+      <c r="BL119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -13708,7 +14179,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1081</v>
       </c>
@@ -13744,6 +14215,12 @@
       </c>
       <c r="N121" t="s">
         <v>1085</v>
+      </c>
+      <c r="AS121">
+        <v>1</v>
+      </c>
+      <c r="AY121">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -13898,7 +14375,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1108</v>
       </c>
@@ -13935,8 +14412,11 @@
       <c r="N126" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="127" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="BB126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1112</v>
       </c>
@@ -13973,11 +14453,11 @@
       <c r="N127" t="s">
         <v>1117</v>
       </c>
-      <c r="CE127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="BG127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1118</v>
       </c>
@@ -14014,11 +14494,11 @@
       <c r="N128" t="s">
         <v>1122</v>
       </c>
-      <c r="CE128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BG128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1123</v>
       </c>
@@ -14055,8 +14535,11 @@
       <c r="N129" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1129</v>
       </c>
@@ -14093,8 +14576,11 @@
       <c r="N130" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1134</v>
       </c>
@@ -14130,6 +14616,9 @@
       </c>
       <c r="N131" t="s">
         <v>1138</v>
+      </c>
+      <c r="BL131">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
@@ -14208,7 +14697,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="134" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1151</v>
       </c>
@@ -14245,7 +14734,22 @@
       <c r="N134" t="s">
         <v>1155</v>
       </c>
-      <c r="CE134">
+      <c r="AS134">
+        <v>1</v>
+      </c>
+      <c r="AV134">
+        <v>1</v>
+      </c>
+      <c r="AY134">
+        <v>1</v>
+      </c>
+      <c r="BB134">
+        <v>1</v>
+      </c>
+      <c r="BL134">
+        <v>1</v>
+      </c>
+      <c r="BN134">
         <v>1</v>
       </c>
     </row>
@@ -14363,7 +14867,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1172</v>
       </c>
@@ -14399,6 +14903,12 @@
       </c>
       <c r="N138" t="s">
         <v>1176</v>
+      </c>
+      <c r="BB138">
+        <v>1</v>
+      </c>
+      <c r="BL138">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
@@ -14439,7 +14949,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="140" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1183</v>
       </c>
@@ -14476,11 +14986,23 @@
       <c r="N140" t="s">
         <v>1187</v>
       </c>
-      <c r="CE140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AS140">
+        <v>1</v>
+      </c>
+      <c r="AV140">
+        <v>1</v>
+      </c>
+      <c r="AY140">
+        <v>1</v>
+      </c>
+      <c r="BB140">
+        <v>1</v>
+      </c>
+      <c r="BN140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1188</v>
       </c>
@@ -14517,8 +15039,20 @@
       <c r="N141" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="142" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="AS141">
+        <v>1</v>
+      </c>
+      <c r="AV141">
+        <v>1</v>
+      </c>
+      <c r="AY141">
+        <v>1</v>
+      </c>
+      <c r="BB141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1195</v>
       </c>
@@ -14555,11 +15089,11 @@
       <c r="N142" t="s">
         <v>1201</v>
       </c>
-      <c r="CE142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="BS142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1202</v>
       </c>
@@ -14596,7 +15130,7 @@
       <c r="N143" t="s">
         <v>1206</v>
       </c>
-      <c r="CE143">
+      <c r="BS143">
         <v>1</v>
       </c>
     </row>
@@ -14638,7 +15172,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1215</v>
       </c>
@@ -14674,6 +15208,18 @@
       </c>
       <c r="N145" t="s">
         <v>1219</v>
+      </c>
+      <c r="AS145">
+        <v>1</v>
+      </c>
+      <c r="AV145">
+        <v>1</v>
+      </c>
+      <c r="AY145">
+        <v>1</v>
+      </c>
+      <c r="BB145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
@@ -14752,7 +15298,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1229</v>
       </c>
@@ -14788,6 +15334,12 @@
       </c>
       <c r="N148" t="s">
         <v>1234</v>
+      </c>
+      <c r="BL148">
+        <v>1</v>
+      </c>
+      <c r="BN148">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
@@ -14942,7 +15494,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1261</v>
       </c>
@@ -14978,6 +15530,9 @@
       </c>
       <c r="N153" t="s">
         <v>1265</v>
+      </c>
+      <c r="BL153">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
@@ -15056,7 +15611,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1276</v>
       </c>
@@ -15092,6 +15647,9 @@
       </c>
       <c r="N156" t="s">
         <v>1280</v>
+      </c>
+      <c r="BL156">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
@@ -15170,7 +15728,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="159" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1292</v>
       </c>
@@ -15207,7 +15765,13 @@
       <c r="N159" t="s">
         <v>1297</v>
       </c>
-      <c r="CE159">
+      <c r="BB159">
+        <v>1</v>
+      </c>
+      <c r="BL159">
+        <v>1</v>
+      </c>
+      <c r="BN159">
         <v>1</v>
       </c>
     </row>
@@ -15363,7 +15927,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1319</v>
       </c>
@@ -15400,8 +15964,11 @@
       <c r="N164" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BN164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1325</v>
       </c>
@@ -15438,8 +16005,11 @@
       <c r="N165" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BN165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1330</v>
       </c>
@@ -15476,8 +16046,14 @@
       <c r="N166" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB166">
+        <v>1</v>
+      </c>
+      <c r="BL166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1336</v>
       </c>
@@ -15513,6 +16089,12 @@
       </c>
       <c r="N167" t="s">
         <v>1341</v>
+      </c>
+      <c r="BB167">
+        <v>1</v>
+      </c>
+      <c r="BL167">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -15819,7 +16401,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1388</v>
       </c>
@@ -15855,6 +16437,15 @@
       </c>
       <c r="N176" t="s">
         <v>1392</v>
+      </c>
+      <c r="BB176">
+        <v>1</v>
+      </c>
+      <c r="BL176">
+        <v>1</v>
+      </c>
+      <c r="BN176">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
@@ -16085,7 +16676,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1428</v>
       </c>
@@ -16122,8 +16713,11 @@
       <c r="N183" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1433</v>
       </c>
@@ -16160,8 +16754,14 @@
       <c r="N184" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL184">
+        <v>1</v>
+      </c>
+      <c r="BN184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1438</v>
       </c>
@@ -16198,8 +16798,14 @@
       <c r="N185" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="186" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="BL185">
+        <v>1</v>
+      </c>
+      <c r="BN185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1445</v>
       </c>
@@ -16236,11 +16842,14 @@
       <c r="N186" t="s">
         <v>1449</v>
       </c>
-      <c r="CE186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AJ186">
+        <v>1</v>
+      </c>
+      <c r="BN186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1450</v>
       </c>
@@ -16277,8 +16886,11 @@
       <c r="N187" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="188" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="BN187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1455</v>
       </c>
@@ -16315,11 +16927,11 @@
       <c r="N188" t="s">
         <v>1459</v>
       </c>
-      <c r="CE188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BN188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1460</v>
       </c>
@@ -16355,6 +16967,9 @@
       </c>
       <c r="N189" t="s">
         <v>1465</v>
+      </c>
+      <c r="BN189">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
@@ -16471,7 +17086,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1481</v>
       </c>
@@ -16508,8 +17123,11 @@
       <c r="N193" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1489</v>
       </c>
@@ -16546,8 +17164,11 @@
       <c r="N194" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1494</v>
       </c>
@@ -16583,6 +17204,24 @@
       </c>
       <c r="N195" t="s">
         <v>1499</v>
+      </c>
+      <c r="AF195">
+        <v>1</v>
+      </c>
+      <c r="AG195">
+        <v>1</v>
+      </c>
+      <c r="AS195">
+        <v>1</v>
+      </c>
+      <c r="AY195">
+        <v>1</v>
+      </c>
+      <c r="AZ195">
+        <v>1</v>
+      </c>
+      <c r="BN195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
@@ -16661,7 +17300,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1511</v>
       </c>
@@ -16697,6 +17336,12 @@
       </c>
       <c r="N198" t="s">
         <v>1516</v>
+      </c>
+      <c r="AS198">
+        <v>1</v>
+      </c>
+      <c r="AY198">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
@@ -16813,7 +17458,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1534</v>
       </c>
@@ -16849,6 +17494,9 @@
       </c>
       <c r="N202" t="s">
         <v>1540</v>
+      </c>
+      <c r="BB202">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
@@ -16889,7 +17537,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1548</v>
       </c>
@@ -16925,6 +17573,18 @@
       </c>
       <c r="N204" t="s">
         <v>1552</v>
+      </c>
+      <c r="AG204">
+        <v>1</v>
+      </c>
+      <c r="AS204">
+        <v>1</v>
+      </c>
+      <c r="AY204">
+        <v>1</v>
+      </c>
+      <c r="BN204">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
@@ -16965,7 +17625,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="206" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1559</v>
       </c>
@@ -17002,11 +17662,14 @@
       <c r="N206" t="s">
         <v>1563</v>
       </c>
-      <c r="CE206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="BL206">
+        <v>1</v>
+      </c>
+      <c r="BN206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1564</v>
       </c>
@@ -17043,11 +17706,14 @@
       <c r="N207" t="s">
         <v>1569</v>
       </c>
-      <c r="CE207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL207">
+        <v>1</v>
+      </c>
+      <c r="BN207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1570</v>
       </c>
@@ -17084,8 +17750,23 @@
       <c r="N208" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AS208">
+        <v>1</v>
+      </c>
+      <c r="AV208">
+        <v>1</v>
+      </c>
+      <c r="AY208">
+        <v>1</v>
+      </c>
+      <c r="BB208">
+        <v>1</v>
+      </c>
+      <c r="BN208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1575</v>
       </c>
@@ -17121,6 +17802,9 @@
       </c>
       <c r="N209" t="s">
         <v>1581</v>
+      </c>
+      <c r="BB209">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
@@ -17199,7 +17883,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1594</v>
       </c>
@@ -17235,6 +17919,12 @@
       </c>
       <c r="N212" t="s">
         <v>1600</v>
+      </c>
+      <c r="AS212">
+        <v>1</v>
+      </c>
+      <c r="AY212">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
@@ -17313,7 +18003,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1614</v>
       </c>
@@ -17349,6 +18039,9 @@
       </c>
       <c r="N215" t="s">
         <v>1618</v>
+      </c>
+      <c r="BN215">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
@@ -17389,7 +18082,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1625</v>
       </c>
@@ -17426,8 +18119,20 @@
       <c r="N217" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AS217">
+        <v>1</v>
+      </c>
+      <c r="AV217">
+        <v>1</v>
+      </c>
+      <c r="AY217">
+        <v>1</v>
+      </c>
+      <c r="BB217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1631</v>
       </c>
@@ -17463,6 +18168,12 @@
       </c>
       <c r="N218" t="s">
         <v>1636</v>
+      </c>
+      <c r="AJ218">
+        <v>1</v>
+      </c>
+      <c r="BB218">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
@@ -17541,7 +18252,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1649</v>
       </c>
@@ -17578,8 +18289,17 @@
       <c r="N221" t="s">
         <v>1655</v>
       </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AS221">
+        <v>1</v>
+      </c>
+      <c r="AU221">
+        <v>1</v>
+      </c>
+      <c r="AY221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1656</v>
       </c>
@@ -17616,8 +18336,17 @@
       <c r="N222" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB222">
+        <v>1</v>
+      </c>
+      <c r="BG222">
+        <v>1</v>
+      </c>
+      <c r="BN222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1661</v>
       </c>
@@ -17653,6 +18382,12 @@
       </c>
       <c r="N223" t="s">
         <v>1665</v>
+      </c>
+      <c r="BL223">
+        <v>1</v>
+      </c>
+      <c r="BN223">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
@@ -17693,7 +18428,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1671</v>
       </c>
@@ -17729,6 +18464,12 @@
       </c>
       <c r="N225" t="s">
         <v>1678</v>
+      </c>
+      <c r="AS225">
+        <v>1</v>
+      </c>
+      <c r="AY225">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
@@ -17807,7 +18548,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1690</v>
       </c>
@@ -17844,8 +18585,11 @@
       <c r="N228" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:110" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1696</v>
       </c>
@@ -17881,6 +18625,18 @@
       </c>
       <c r="N229" t="s">
         <v>1700</v>
+      </c>
+      <c r="BL229">
+        <v>1</v>
+      </c>
+      <c r="BN229">
+        <v>1</v>
+      </c>
+      <c r="BR229">
+        <v>1</v>
+      </c>
+      <c r="DE229">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
@@ -17959,7 +18715,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1713</v>
       </c>
@@ -17995,6 +18751,15 @@
       </c>
       <c r="N232" t="s">
         <v>1717</v>
+      </c>
+      <c r="BB232">
+        <v>1</v>
+      </c>
+      <c r="BL232">
+        <v>1</v>
+      </c>
+      <c r="BN232">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
@@ -18073,7 +18838,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1728</v>
       </c>
@@ -18109,6 +18874,9 @@
       </c>
       <c r="N235" t="s">
         <v>1732</v>
+      </c>
+      <c r="BN235">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
@@ -18149,7 +18917,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1739</v>
       </c>
@@ -18186,8 +18954,11 @@
       <c r="N237" t="s">
         <v>1744</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1745</v>
       </c>
@@ -18224,8 +18995,14 @@
       <c r="N238" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AS238">
+        <v>1</v>
+      </c>
+      <c r="AY238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1752</v>
       </c>
@@ -18262,8 +19039,17 @@
       <c r="N239" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S239">
+        <v>1</v>
+      </c>
+      <c r="AG239">
+        <v>1</v>
+      </c>
+      <c r="BN239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1757</v>
       </c>
@@ -18299,6 +19085,12 @@
       </c>
       <c r="N240" t="s">
         <v>1761</v>
+      </c>
+      <c r="BL240">
+        <v>1</v>
+      </c>
+      <c r="BN240">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
@@ -18567,7 +19359,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1801</v>
       </c>
@@ -18603,6 +19395,9 @@
       </c>
       <c r="N248" t="s">
         <v>1806</v>
+      </c>
+      <c r="BB248">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
@@ -18681,7 +19476,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1820</v>
       </c>
@@ -18718,8 +19513,11 @@
       <c r="N251" t="s">
         <v>1825</v>
       </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1826</v>
       </c>
@@ -18756,8 +19554,11 @@
       <c r="N252" t="s">
         <v>1830</v>
       </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1831</v>
       </c>
@@ -18794,8 +19595,11 @@
       <c r="N253" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BL253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1837</v>
       </c>
@@ -18831,6 +19635,9 @@
       </c>
       <c r="N254" t="s">
         <v>1841</v>
+      </c>
+      <c r="BL254">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
@@ -18909,7 +19716,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1853</v>
       </c>
@@ -18945,6 +19752,12 @@
       </c>
       <c r="N257" t="s">
         <v>1858</v>
+      </c>
+      <c r="AS257">
+        <v>1</v>
+      </c>
+      <c r="AY257">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
@@ -19023,7 +19836,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1871</v>
       </c>
@@ -19059,6 +19872,9 @@
       </c>
       <c r="N260" t="s">
         <v>1875</v>
+      </c>
+      <c r="AJ260">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
@@ -19137,7 +19953,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1886</v>
       </c>
@@ -19174,8 +19990,11 @@
       <c r="N263" t="s">
         <v>1890</v>
       </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BN263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1891</v>
       </c>
@@ -19211,6 +20030,9 @@
       </c>
       <c r="N264" t="s">
         <v>1897</v>
+      </c>
+      <c r="T264">
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
@@ -19289,7 +20111,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1911</v>
       </c>
@@ -19325,6 +20147,15 @@
       </c>
       <c r="N267" t="s">
         <v>1915</v>
+      </c>
+      <c r="BB267">
+        <v>1</v>
+      </c>
+      <c r="BL267">
+        <v>1</v>
+      </c>
+      <c r="BN267">
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
@@ -19403,7 +20234,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1927</v>
       </c>
@@ -19439,6 +20270,9 @@
       </c>
       <c r="N270" t="s">
         <v>1931</v>
+      </c>
+      <c r="BN270">
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
@@ -19631,7 +20465,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1956</v>
       </c>
@@ -19668,8 +20502,14 @@
       <c r="N276" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AS276">
+        <v>1</v>
+      </c>
+      <c r="AY276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1961</v>
       </c>
@@ -19705,6 +20545,9 @@
       </c>
       <c r="N277" t="s">
         <v>1965</v>
+      </c>
+      <c r="BL277">
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
@@ -19745,7 +20588,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1972</v>
       </c>
@@ -19782,8 +20625,11 @@
       <c r="N279" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="BB279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1978</v>
       </c>
@@ -19819,6 +20665,9 @@
       </c>
       <c r="N280" t="s">
         <v>1982</v>
+      </c>
+      <c r="BB280">
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
